--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_16_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>996530.3074169245</v>
+        <v>935686.162535498</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11255961.99488922</v>
+        <v>11255961.99488921</v>
       </c>
     </row>
     <row r="8">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>91.3487908977956</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>234.7499039393088</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>234.7499039393088</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="H11" t="n">
-        <v>234.7499039393088</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>115.4189244919474</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>206.7677153897431</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.54580673484523</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -1466,10 +1466,10 @@
         <v>134.7768548141015</v>
       </c>
       <c r="H12" t="n">
-        <v>98.42534635173116</v>
+        <v>98.42534635173115</v>
       </c>
       <c r="I12" t="n">
-        <v>43.59174601422158</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.31161610250568</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.8111091660209</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>193.3588450474153</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>21.79398993517133</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>145.907417175743</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>122.3354791296873</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12.38987185316698</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>91.3487908977956</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>234.7499039393086</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>234.7499039393086</v>
+        <v>53.98466947476666</v>
       </c>
       <c r="H14" t="n">
-        <v>234.7499039393086</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>115.4189244919474</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>152.7830459149762</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.42534635173115</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>73.8408815174279</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>140.3031970650982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>12.3898718531663</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>122.3354791296873</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>113.5889402367625</v>
       </c>
     </row>
     <row r="17">
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>91.3487908977956</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>152.7830459149763</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.7680335901896</v>
+      </c>
+      <c r="U17" t="n">
         <v>234.7499039393087</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
+        <v>75.96653982388585</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>234.7499039393087</v>
-      </c>
-      <c r="H17" t="n">
-        <v>234.7499039393087</v>
-      </c>
-      <c r="I17" t="n">
-        <v>115.4189244919474</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>112.9790987350512</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.42534635173116</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.59174601422158</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.3116161025057</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.8111091660209</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.6998595171783256</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>11.22965313635141</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.164657910868028</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S19" t="n">
-        <v>204.1476062603911</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>234.7499039393087</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>234.7499039393087</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>234.7499039393086</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="I20" t="n">
-        <v>115.4189244919474</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>152.7830459149763</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.7680335901896</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>75.96653982388585</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="W20" t="n">
-        <v>234.7499039393086</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>173.3156489221278</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.59174601422158</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.8111091660209</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.3588450474153</v>
+        <v>112.4538588437727</v>
       </c>
       <c r="U21" t="n">
-        <v>125.3214120129547</v>
+        <v>224.5751800020078</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.7608028556878</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.3354791296873</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>126.4085319852223</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>223.8678826167112</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>217.6497367123405</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.1822097117574</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,58 +2335,58 @@
         <v>265.1822097117574</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>34.69525732824217</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.7680335901896</v>
+      </c>
+      <c r="U23" t="n">
+        <v>251.2914091074414</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>265.1822097117574</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>233.5724903141158</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>71.80987619125101</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.3116161025057</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>139.9621199448746</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>224.5751800020078</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>14.31492089764743</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>122.3354791296873</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>44.21728397363064</v>
       </c>
       <c r="W25" t="n">
         <v>265.1822097117574</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>265.1822097117574</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>265.1822097117574</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>115.4189244919474</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.1535658221683</v>
+        <v>34.69525732824217</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.7680335901896</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2914091074414</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>265.1822097117574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.579628014322666</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>193.3588450474153</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>224.5751800020078</v>
@@ -2696,13 +2696,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>22.49688123327865</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.98506979358908</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>204.1476062603911</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>265.1822097117574</v>
@@ -2775,7 +2775,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>159.8783282371009</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>265.1822097117574</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>265.1822097117574</v>
       </c>
-      <c r="E29" t="n">
-        <v>265.1822097117574</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>152.7830459149763</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.7680335901896</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>233.5724903141158</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>133.2036205207073</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>139.0882606326684</v>
+        <v>207.9825572371529</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2939,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>122.3354791296873</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>69.13623157285879</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>204.1476062603911</v>
+        <v>140.9736546441756</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>265.1822097117574</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>265.1822097117574</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>233.5724903141158</v>
       </c>
-      <c r="C32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>265.1822097117574</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="Y32" t="n">
         <v>265.1822097117574</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>265.1822097117574</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>112.9008008513768</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>17.3116161025057</v>
       </c>
       <c r="S33" t="n">
-        <v>145.8111091660209</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>193.3588450474153</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>221.7492956405505</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>59.52190982242928</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>126.4085319852223</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>142.5548072472535</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91.34879089779538</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>115.4189244919474</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.7680335901896</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="V35" t="n">
-        <v>234.7499039393085</v>
+        <v>228.7495857388616</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>67.3433625139095</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.42534635173116</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>15.32198261821836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.5751800020078</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.3439389439148</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>190.7793362814056</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>215.3772593967419</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="E38" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="G38" t="n">
-        <v>206.7677153897428</v>
+        <v>53.98466947476666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>152.7830459149763</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.42534635173116</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>43.59174601422158</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5751800020078</v>
+        <v>128.9094632634948</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>49.15323670995403</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.50213045194907</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>204.1476062603911</v>
       </c>
       <c r="T40" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.3092165930827</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="G41" t="n">
-        <v>206.7677153897428</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>206.7677153897431</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393087</v>
       </c>
     </row>
     <row r="42">
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>154.9938503752823</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>15.32198261821925</v>
       </c>
     </row>
     <row r="43">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>52.3193859874595</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.8446864381344</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="V43" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>50.80505027420601</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>234.7499039393085</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>206.7677153897428</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>234.7499039393085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.7499039393085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>5.669088456803218</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>17.3116161025057</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.5751800020078</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>234.7499039393085</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>15.32198261821867</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8446864381344</v>
+        <v>142.1581578227006</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>223.8678826167112</v>
       </c>
       <c r="U46" t="n">
-        <v>78.16564605529983</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="C11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="D11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="E11" t="n">
-        <v>846.7281097998657</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="F11" t="n">
-        <v>609.6069947096548</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="G11" t="n">
-        <v>372.4858796194439</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H11" t="n">
-        <v>135.364764529233</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I11" t="n">
         <v>18.7799923151447</v>
@@ -5044,49 +5044,49 @@
         <v>39.75589041841067</v>
       </c>
       <c r="K11" t="n">
-        <v>120.6633795243874</v>
+        <v>120.6633795243865</v>
       </c>
       <c r="L11" t="n">
-        <v>257.0154919014181</v>
+        <v>257.0154919014172</v>
       </c>
       <c r="M11" t="n">
-        <v>439.6111906682501</v>
+        <v>439.6111906682493</v>
       </c>
       <c r="N11" t="n">
-        <v>629.6599419084171</v>
+        <v>629.6599419084166</v>
       </c>
       <c r="O11" t="n">
-        <v>796.1157088401391</v>
+        <v>796.1157088401387</v>
       </c>
       <c r="P11" t="n">
-        <v>904.5433789886083</v>
+        <v>904.5433789886082</v>
       </c>
       <c r="Q11" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R11" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S11" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T11" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="U11" t="n">
-        <v>938.999615757235</v>
+        <v>730.1433375857771</v>
       </c>
       <c r="V11" t="n">
-        <v>938.999615757235</v>
+        <v>493.0222224955663</v>
       </c>
       <c r="W11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="X11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="Y11" t="n">
-        <v>938.999615757235</v>
+        <v>255.9011074053555</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.2765786513307</v>
+        <v>556.9030902510597</v>
       </c>
       <c r="C12" t="n">
-        <v>748.5234635731479</v>
+        <v>556.9030902510597</v>
       </c>
       <c r="D12" t="n">
-        <v>600.9351569320917</v>
+        <v>556.9030902510597</v>
       </c>
       <c r="E12" t="n">
-        <v>443.3256279349464</v>
+        <v>399.2935612539144</v>
       </c>
       <c r="F12" t="n">
-        <v>298.3698379515632</v>
+        <v>254.3377712705313</v>
       </c>
       <c r="G12" t="n">
-        <v>162.231600765602</v>
+        <v>118.1995340845701</v>
       </c>
       <c r="H12" t="n">
-        <v>62.8120589961766</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I12" t="n">
         <v>18.7799923151447</v>
       </c>
       <c r="J12" t="n">
-        <v>18.7799923151447</v>
+        <v>84.42898710605412</v>
       </c>
       <c r="K12" t="n">
-        <v>84.9750159941953</v>
+        <v>150.6240107851048</v>
       </c>
       <c r="L12" t="n">
-        <v>284.7958667211669</v>
+        <v>284.7958667211664</v>
       </c>
       <c r="M12" t="n">
-        <v>460.2410405889106</v>
+        <v>460.2410405889102</v>
       </c>
       <c r="N12" t="n">
-        <v>654.378154948379</v>
+        <v>654.3781549483787</v>
       </c>
       <c r="O12" t="n">
-        <v>810.3113865046953</v>
+        <v>810.3113865046951</v>
       </c>
       <c r="P12" t="n">
-        <v>916.6118125579749</v>
+        <v>916.6118125579746</v>
       </c>
       <c r="Q12" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R12" t="n">
-        <v>938.999615757235</v>
+        <v>921.5131348456129</v>
       </c>
       <c r="S12" t="n">
-        <v>938.999615757235</v>
+        <v>774.2291861930664</v>
       </c>
       <c r="T12" t="n">
-        <v>938.999615757235</v>
+        <v>578.9172214987075</v>
       </c>
       <c r="U12" t="n">
-        <v>938.999615757235</v>
+        <v>578.9172214987075</v>
       </c>
       <c r="V12" t="n">
-        <v>938.999615757235</v>
+        <v>578.9172214987075</v>
       </c>
       <c r="W12" t="n">
-        <v>938.999615757235</v>
+        <v>578.9172214987075</v>
       </c>
       <c r="X12" t="n">
-        <v>938.999615757235</v>
+        <v>556.9030902510597</v>
       </c>
       <c r="Y12" t="n">
-        <v>938.999615757235</v>
+        <v>556.9030902510597</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.484593683329</v>
+        <v>166.1612217855922</v>
       </c>
       <c r="C13" t="n">
-        <v>926.484593683329</v>
+        <v>166.1612217855922</v>
       </c>
       <c r="D13" t="n">
-        <v>775.9739204363398</v>
+        <v>166.1612217855922</v>
       </c>
       <c r="E13" t="n">
-        <v>627.5147040997749</v>
+        <v>166.1612217855922</v>
       </c>
       <c r="F13" t="n">
-        <v>479.8793289383563</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G13" t="n">
-        <v>311.3493426372104</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H13" t="n">
-        <v>157.4665760271954</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I13" t="n">
-        <v>33.89538498710716</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J13" t="n">
         <v>18.7799923151447</v>
       </c>
       <c r="K13" t="n">
-        <v>18.7799923151447</v>
+        <v>124.3380113212973</v>
       </c>
       <c r="L13" t="n">
-        <v>203.5831886086825</v>
+        <v>315.2195484316483</v>
       </c>
       <c r="M13" t="n">
-        <v>415.4339055475347</v>
+        <v>527.0702653705005</v>
       </c>
       <c r="N13" t="n">
-        <v>627.3885478420564</v>
+        <v>739.0249076650221</v>
       </c>
       <c r="O13" t="n">
-        <v>807.8263692985827</v>
+        <v>919.4627291215484</v>
       </c>
       <c r="P13" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="Q13" t="n">
-        <v>938.999615757235</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R13" t="n">
-        <v>938.999615757235</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="S13" t="n">
-        <v>938.999615757235</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="T13" t="n">
-        <v>938.999615757235</v>
+        <v>585.1850555532615</v>
       </c>
       <c r="U13" t="n">
-        <v>938.999615757235</v>
+        <v>348.0639404630506</v>
       </c>
       <c r="V13" t="n">
-        <v>938.999615757235</v>
+        <v>348.0639404630506</v>
       </c>
       <c r="W13" t="n">
-        <v>938.999615757235</v>
+        <v>348.0639404630506</v>
       </c>
       <c r="X13" t="n">
-        <v>926.484593683329</v>
+        <v>348.0639404630506</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.484593683329</v>
+        <v>348.0639404630506</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>938.9996157572343</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="C14" t="n">
-        <v>938.9996157572343</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="D14" t="n">
-        <v>938.9996157572343</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="E14" t="n">
-        <v>846.728109799865</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="F14" t="n">
-        <v>609.6069947096544</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4858796194437</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H14" t="n">
-        <v>135.364764529233</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I14" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J14" t="n">
-        <v>39.75589041841044</v>
+        <v>39.75589041841091</v>
       </c>
       <c r="K14" t="n">
-        <v>120.6633795243866</v>
+        <v>120.6633795243869</v>
       </c>
       <c r="L14" t="n">
-        <v>257.0154919014172</v>
+        <v>257.0154919014176</v>
       </c>
       <c r="M14" t="n">
-        <v>439.6111906682493</v>
+        <v>439.6111906682496</v>
       </c>
       <c r="N14" t="n">
-        <v>629.6599419084164</v>
+        <v>629.6599419084168</v>
       </c>
       <c r="O14" t="n">
-        <v>796.1157088401385</v>
+        <v>796.115708840139</v>
       </c>
       <c r="P14" t="n">
-        <v>904.5433789886077</v>
+        <v>904.5433789886082</v>
       </c>
       <c r="Q14" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R14" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S14" t="n">
-        <v>938.9996157572343</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="T14" t="n">
-        <v>938.9996157572343</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="U14" t="n">
-        <v>938.9996157572343</v>
+        <v>547.5521916619973</v>
       </c>
       <c r="V14" t="n">
-        <v>938.9996157572343</v>
+        <v>310.4310765717865</v>
       </c>
       <c r="W14" t="n">
-        <v>938.9996157572343</v>
+        <v>310.4310765717865</v>
       </c>
       <c r="X14" t="n">
-        <v>938.9996157572343</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="Y14" t="n">
-        <v>938.9996157572343</v>
+        <v>73.30996148157567</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>630.2366635598171</v>
+        <v>420.7648530650986</v>
       </c>
       <c r="C15" t="n">
-        <v>457.4835484816343</v>
+        <v>420.7648530650986</v>
       </c>
       <c r="D15" t="n">
-        <v>457.4835484816343</v>
+        <v>420.7648530650986</v>
       </c>
       <c r="E15" t="n">
-        <v>299.874019484489</v>
+        <v>263.1553240679532</v>
       </c>
       <c r="F15" t="n">
-        <v>154.9182295011059</v>
+        <v>118.1995340845701</v>
       </c>
       <c r="G15" t="n">
-        <v>18.77999231514469</v>
+        <v>118.1995340845701</v>
       </c>
       <c r="H15" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I15" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J15" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K15" t="n">
-        <v>93.66677975293277</v>
+        <v>84.97501599419533</v>
       </c>
       <c r="L15" t="n">
-        <v>227.8386356889944</v>
+        <v>219.146871930257</v>
       </c>
       <c r="M15" t="n">
-        <v>460.2410405889099</v>
+        <v>394.5920457980008</v>
       </c>
       <c r="N15" t="n">
-        <v>654.3781549483783</v>
+        <v>588.7291601574692</v>
       </c>
       <c r="O15" t="n">
-        <v>810.3113865046946</v>
+        <v>744.6623917137856</v>
       </c>
       <c r="P15" t="n">
-        <v>916.6118125579742</v>
+        <v>916.6118125579746</v>
       </c>
       <c r="Q15" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R15" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S15" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T15" t="n">
-        <v>938.9996157572343</v>
+        <v>864.4128667497318</v>
       </c>
       <c r="U15" t="n">
-        <v>938.9996157572343</v>
+        <v>864.4128667497318</v>
       </c>
       <c r="V15" t="n">
-        <v>938.9996157572343</v>
+        <v>864.4128667497318</v>
       </c>
       <c r="W15" t="n">
-        <v>938.9996157572343</v>
+        <v>627.2917516595211</v>
       </c>
       <c r="X15" t="n">
-        <v>938.9996157572343</v>
+        <v>420.7648530650986</v>
       </c>
       <c r="Y15" t="n">
-        <v>797.2792146813775</v>
+        <v>420.7648530650986</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>938.9996157572343</v>
+        <v>187.8068134577733</v>
       </c>
       <c r="C16" t="n">
-        <v>926.484593683329</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D16" t="n">
-        <v>775.9739204363398</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E16" t="n">
-        <v>627.5147040997749</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F16" t="n">
-        <v>479.8793289383563</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G16" t="n">
-        <v>311.3493426372104</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H16" t="n">
-        <v>157.4665760271954</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I16" t="n">
-        <v>33.89538498710715</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J16" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3380113212973</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="L16" t="n">
-        <v>315.2195484316481</v>
+        <v>209.6615294254956</v>
       </c>
       <c r="M16" t="n">
-        <v>527.0702653705004</v>
+        <v>421.5122463643478</v>
       </c>
       <c r="N16" t="n">
-        <v>619.7302690370229</v>
+        <v>633.4668886588695</v>
       </c>
       <c r="O16" t="n">
-        <v>800.1680904935492</v>
+        <v>813.9047101153958</v>
       </c>
       <c r="P16" t="n">
-        <v>931.3413369522016</v>
+        <v>931.3413369522019</v>
       </c>
       <c r="Q16" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R16" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S16" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T16" t="n">
-        <v>938.9996157572343</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="U16" t="n">
-        <v>938.9996157572343</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="V16" t="n">
-        <v>938.9996157572343</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="W16" t="n">
-        <v>938.9996157572343</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="X16" t="n">
-        <v>938.9996157572343</v>
+        <v>484.4458354046888</v>
       </c>
       <c r="Y16" t="n">
-        <v>938.9996157572343</v>
+        <v>369.7095321352317</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>938.9996157572348</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="C17" t="n">
-        <v>938.9996157572348</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D17" t="n">
-        <v>938.9996157572348</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E17" t="n">
-        <v>846.7281097998655</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F17" t="n">
-        <v>609.6069947096546</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G17" t="n">
-        <v>372.4858796194438</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H17" t="n">
-        <v>135.364764529233</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I17" t="n">
         <v>18.7799923151447</v>
       </c>
       <c r="J17" t="n">
-        <v>39.75589041841049</v>
+        <v>39.75589041841081</v>
       </c>
       <c r="K17" t="n">
-        <v>120.6633795243864</v>
+        <v>120.6633795243867</v>
       </c>
       <c r="L17" t="n">
-        <v>257.015491901417</v>
+        <v>257.0154919014174</v>
       </c>
       <c r="M17" t="n">
-        <v>439.611190668249</v>
+        <v>439.6111906682494</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6599419084162</v>
+        <v>629.6599419084165</v>
       </c>
       <c r="O17" t="n">
-        <v>796.1157088401383</v>
+        <v>796.1157088401386</v>
       </c>
       <c r="P17" t="n">
-        <v>904.5433789886082</v>
+        <v>904.5433789886079</v>
       </c>
       <c r="Q17" t="n">
-        <v>938.9996157572348</v>
+        <v>938.9996157572344</v>
       </c>
       <c r="R17" t="n">
         <v>938.9996157572348</v>
       </c>
       <c r="S17" t="n">
-        <v>938.9996157572348</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="T17" t="n">
-        <v>938.9996157572348</v>
+        <v>569.756101105552</v>
       </c>
       <c r="U17" t="n">
-        <v>938.9996157572348</v>
+        <v>332.6349860153412</v>
       </c>
       <c r="V17" t="n">
-        <v>938.9996157572348</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="W17" t="n">
-        <v>938.9996157572348</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="X17" t="n">
-        <v>938.9996157572348</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="Y17" t="n">
-        <v>938.9996157572348</v>
+        <v>18.7799923151447</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578.9172214987075</v>
+        <v>191.5331073933275</v>
       </c>
       <c r="C18" t="n">
-        <v>578.9172214987075</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D18" t="n">
-        <v>578.9172214987075</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E18" t="n">
-        <v>421.3076925015622</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F18" t="n">
-        <v>276.351902518179</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G18" t="n">
-        <v>162.231600765602</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H18" t="n">
-        <v>62.8120589961766</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I18" t="n">
         <v>18.7799923151447</v>
       </c>
       <c r="J18" t="n">
-        <v>84.42898710605444</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K18" t="n">
-        <v>150.624010785105</v>
+        <v>84.9750159941953</v>
       </c>
       <c r="L18" t="n">
-        <v>284.7958667211666</v>
+        <v>219.1468719302569</v>
       </c>
       <c r="M18" t="n">
-        <v>460.2410405889103</v>
+        <v>394.5920457980006</v>
       </c>
       <c r="N18" t="n">
-        <v>654.3781549483788</v>
+        <v>588.729160157469</v>
       </c>
       <c r="O18" t="n">
-        <v>810.3113865046951</v>
+        <v>744.6623917137854</v>
       </c>
       <c r="P18" t="n">
         <v>916.6118125579746</v>
@@ -5618,28 +5618,28 @@
         <v>938.9996157572348</v>
       </c>
       <c r="R18" t="n">
-        <v>921.5131348456129</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S18" t="n">
-        <v>774.2291861930664</v>
+        <v>791.7156671046884</v>
       </c>
       <c r="T18" t="n">
-        <v>578.9172214987075</v>
+        <v>596.4037024103294</v>
       </c>
       <c r="U18" t="n">
-        <v>578.9172214987075</v>
+        <v>596.4037024103294</v>
       </c>
       <c r="V18" t="n">
-        <v>578.9172214987075</v>
+        <v>595.6967736050988</v>
       </c>
       <c r="W18" t="n">
-        <v>578.9172214987075</v>
+        <v>358.5756585148879</v>
       </c>
       <c r="X18" t="n">
-        <v>578.9172214987075</v>
+        <v>358.5756585148879</v>
       </c>
       <c r="Y18" t="n">
-        <v>578.9172214987075</v>
+        <v>358.5756585148879</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.12307629125723</v>
+        <v>337.0719997331542</v>
       </c>
       <c r="C19" t="n">
-        <v>18.7799923151447</v>
+        <v>337.0719997331542</v>
       </c>
       <c r="D19" t="n">
-        <v>18.7799923151447</v>
+        <v>186.5613264861649</v>
       </c>
       <c r="E19" t="n">
-        <v>18.7799923151447</v>
+        <v>38.10211014960012</v>
       </c>
       <c r="F19" t="n">
-        <v>18.7799923151447</v>
+        <v>33.89538498710716</v>
       </c>
       <c r="G19" t="n">
-        <v>18.7799923151447</v>
+        <v>33.89538498710716</v>
       </c>
       <c r="H19" t="n">
-        <v>18.7799923151447</v>
+        <v>33.89538498710716</v>
       </c>
       <c r="I19" t="n">
-        <v>18.7799923151447</v>
+        <v>33.89538498710716</v>
       </c>
       <c r="J19" t="n">
         <v>18.7799923151447</v>
       </c>
       <c r="K19" t="n">
-        <v>18.7799923151447</v>
+        <v>124.3380113212973</v>
       </c>
       <c r="L19" t="n">
-        <v>209.6615294254956</v>
+        <v>315.2195484316482</v>
       </c>
       <c r="M19" t="n">
-        <v>421.5122463643478</v>
+        <v>407.7756267425017</v>
       </c>
       <c r="N19" t="n">
-        <v>633.4668886588695</v>
+        <v>619.7302690370234</v>
       </c>
       <c r="O19" t="n">
-        <v>813.9047101153958</v>
+        <v>800.1680904935497</v>
       </c>
       <c r="P19" t="n">
-        <v>938.9996157572348</v>
+        <v>931.341336952202</v>
       </c>
       <c r="Q19" t="n">
         <v>938.9996157572348</v>
       </c>
       <c r="R19" t="n">
-        <v>938.9996157572348</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="S19" t="n">
-        <v>732.7899124639105</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="T19" t="n">
-        <v>732.7899124639105</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="U19" t="n">
-        <v>495.6687973736996</v>
+        <v>811.3142299135759</v>
       </c>
       <c r="V19" t="n">
-        <v>258.5476822834888</v>
+        <v>574.193114823365</v>
       </c>
       <c r="W19" t="n">
-        <v>258.5476822834888</v>
+        <v>337.0719997331542</v>
       </c>
       <c r="X19" t="n">
-        <v>30.12307629125723</v>
+        <v>337.0719997331542</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.12307629125723</v>
+        <v>337.0719997331542</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.4858796194437</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="C20" t="n">
-        <v>135.364764529233</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="D20" t="n">
-        <v>135.364764529233</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="E20" t="n">
-        <v>135.364764529233</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="F20" t="n">
-        <v>135.364764529233</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="G20" t="n">
-        <v>135.364764529233</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="H20" t="n">
-        <v>135.364764529233</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I20" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J20" t="n">
-        <v>39.75589041841044</v>
+        <v>39.7558904184109</v>
       </c>
       <c r="K20" t="n">
-        <v>120.663379524387</v>
+        <v>120.6633795243874</v>
       </c>
       <c r="L20" t="n">
-        <v>257.0154919014176</v>
+        <v>257.015491901418</v>
       </c>
       <c r="M20" t="n">
-        <v>439.6111906682496</v>
+        <v>439.6111906682498</v>
       </c>
       <c r="N20" t="n">
-        <v>629.6599419084167</v>
+        <v>629.6599419084171</v>
       </c>
       <c r="O20" t="n">
-        <v>796.1157088401387</v>
+        <v>796.1157088401391</v>
       </c>
       <c r="P20" t="n">
-        <v>904.5433789886077</v>
+        <v>904.5433789886082</v>
       </c>
       <c r="Q20" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R20" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S20" t="n">
-        <v>784.6733067522077</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="T20" t="n">
-        <v>784.6733067522077</v>
+        <v>569.756101105552</v>
       </c>
       <c r="U20" t="n">
-        <v>784.6733067522077</v>
+        <v>493.0222224955663</v>
       </c>
       <c r="V20" t="n">
-        <v>784.6733067522077</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="W20" t="n">
-        <v>547.5521916619971</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="X20" t="n">
-        <v>372.4858796194437</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="Y20" t="n">
-        <v>372.4858796194437</v>
+        <v>255.9011074053555</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>235.5651740743594</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="C21" t="n">
-        <v>62.81205899617659</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="D21" t="n">
-        <v>62.81205899617659</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="E21" t="n">
-        <v>62.81205899617659</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="F21" t="n">
-        <v>62.81205899617659</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="G21" t="n">
-        <v>62.81205899617659</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H21" t="n">
-        <v>62.81205899617659</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I21" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J21" t="n">
-        <v>18.77999231514469</v>
+        <v>84.42898710605444</v>
       </c>
       <c r="K21" t="n">
-        <v>84.97501599419529</v>
+        <v>150.624010785105</v>
       </c>
       <c r="L21" t="n">
-        <v>284.7958667211662</v>
+        <v>284.7958667211666</v>
       </c>
       <c r="M21" t="n">
-        <v>460.2410405889099</v>
+        <v>460.2410405889103</v>
       </c>
       <c r="N21" t="n">
-        <v>654.3781549483783</v>
+        <v>654.3781549483788</v>
       </c>
       <c r="O21" t="n">
-        <v>810.3113865046946</v>
+        <v>810.3113865046951</v>
       </c>
       <c r="P21" t="n">
-        <v>916.6118125579742</v>
+        <v>916.6118125579746</v>
       </c>
       <c r="Q21" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R21" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S21" t="n">
-        <v>791.7156671046879</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T21" t="n">
-        <v>596.4037024103289</v>
+        <v>825.4098593493835</v>
       </c>
       <c r="U21" t="n">
-        <v>469.8164175487585</v>
+        <v>598.5662431857393</v>
       </c>
       <c r="V21" t="n">
-        <v>235.5651740743594</v>
+        <v>598.5662431857393</v>
       </c>
       <c r="W21" t="n">
-        <v>235.5651740743594</v>
+        <v>361.4451280955284</v>
       </c>
       <c r="X21" t="n">
-        <v>235.5651740743594</v>
+        <v>154.9182295011059</v>
       </c>
       <c r="Y21" t="n">
-        <v>235.5651740743594</v>
+        <v>154.9182295011059</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>585.185055553261</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="C22" t="n">
-        <v>416.1582344106324</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D22" t="n">
-        <v>416.1582344106324</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E22" t="n">
-        <v>416.1582344106324</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F22" t="n">
-        <v>416.1582344106324</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G22" t="n">
-        <v>311.3493426372104</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H22" t="n">
-        <v>157.4665760271954</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I22" t="n">
-        <v>33.89538498710715</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J22" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K22" t="n">
-        <v>18.77999231514469</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="L22" t="n">
         <v>209.6615294254956</v>
@@ -5928,34 +5928,34 @@
         <v>813.9047101153958</v>
       </c>
       <c r="P22" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="Q22" t="n">
-        <v>938.9996157572343</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R22" t="n">
-        <v>811.3142299135754</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S22" t="n">
-        <v>811.3142299135754</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T22" t="n">
-        <v>585.185055553261</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="U22" t="n">
-        <v>585.185055553261</v>
+        <v>475.7493263067095</v>
       </c>
       <c r="V22" t="n">
-        <v>585.185055553261</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="W22" t="n">
-        <v>585.185055553261</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="X22" t="n">
-        <v>585.185055553261</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="Y22" t="n">
-        <v>585.185055553261</v>
+        <v>18.7799923151447</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>556.9362125582686</v>
+        <v>324.1211091405765</v>
       </c>
       <c r="C23" t="n">
-        <v>556.9362125582686</v>
+        <v>324.1211091405765</v>
       </c>
       <c r="D23" t="n">
-        <v>556.9362125582686</v>
+        <v>324.1211091405765</v>
       </c>
       <c r="E23" t="n">
-        <v>556.9362125582686</v>
+        <v>324.1211091405765</v>
       </c>
       <c r="F23" t="n">
-        <v>556.9362125582686</v>
+        <v>324.1211091405765</v>
       </c>
       <c r="G23" t="n">
-        <v>289.0753946676046</v>
+        <v>56.26029124991248</v>
       </c>
       <c r="H23" t="n">
-        <v>21.21457677694059</v>
+        <v>56.26029124991248</v>
       </c>
       <c r="I23" t="n">
         <v>21.21457677694059</v>
@@ -6019,22 +6019,22 @@
         <v>1060.728838847029</v>
       </c>
       <c r="T23" t="n">
-        <v>1060.728838847029</v>
+        <v>845.8116332003733</v>
       </c>
       <c r="U23" t="n">
-        <v>1060.728838847029</v>
+        <v>591.9819270312405</v>
       </c>
       <c r="V23" t="n">
-        <v>1060.728838847029</v>
+        <v>591.9819270312405</v>
       </c>
       <c r="W23" t="n">
-        <v>1060.728838847029</v>
+        <v>591.9819270312405</v>
       </c>
       <c r="X23" t="n">
-        <v>824.7970304489327</v>
+        <v>591.9819270312405</v>
       </c>
       <c r="Y23" t="n">
-        <v>824.7970304489327</v>
+        <v>324.1211091405765</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.21457677694059</v>
+        <v>374.843832422296</v>
       </c>
       <c r="C24" t="n">
-        <v>21.21457677694059</v>
+        <v>302.3086039462849</v>
       </c>
       <c r="D24" t="n">
-        <v>21.21457677694059</v>
+        <v>302.3086039462849</v>
       </c>
       <c r="E24" t="n">
-        <v>21.21457677694059</v>
+        <v>302.3086039462849</v>
       </c>
       <c r="F24" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="G24" t="n">
         <v>21.21457677694059</v>
@@ -6077,43 +6077,43 @@
         <v>221.5814563920528</v>
       </c>
       <c r="M24" t="n">
-        <v>484.1118440066926</v>
+        <v>397.0266302597965</v>
       </c>
       <c r="N24" t="n">
-        <v>678.248958366161</v>
+        <v>591.1637446192649</v>
       </c>
       <c r="O24" t="n">
-        <v>932.0406095944898</v>
+        <v>747.0969761755812</v>
       </c>
       <c r="P24" t="n">
-        <v>1038.341035647769</v>
+        <v>853.3974022288608</v>
       </c>
       <c r="Q24" t="n">
         <v>1060.728838847029</v>
       </c>
       <c r="R24" t="n">
-        <v>1043.242357935408</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="S24" t="n">
-        <v>901.866479203211</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="T24" t="n">
-        <v>901.866479203211</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="U24" t="n">
-        <v>675.0228630395668</v>
+        <v>833.8852226833852</v>
       </c>
       <c r="V24" t="n">
-        <v>440.7716195651677</v>
+        <v>833.8852226833852</v>
       </c>
       <c r="W24" t="n">
-        <v>188.257127898501</v>
+        <v>581.3707310167185</v>
       </c>
       <c r="X24" t="n">
-        <v>188.257127898501</v>
+        <v>374.843832422296</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.257127898501</v>
+        <v>374.843832422296</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>792.8680209563654</v>
+        <v>337.8767730809879</v>
       </c>
       <c r="C25" t="n">
-        <v>792.8680209563654</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="D25" t="n">
-        <v>778.4085048981357</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="E25" t="n">
-        <v>629.9492885615708</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="F25" t="n">
-        <v>482.3139134001522</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="G25" t="n">
-        <v>313.7839270990063</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9011604889913</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="I25" t="n">
-        <v>36.32996944890306</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="J25" t="n">
         <v>21.21457677694059</v>
       </c>
       <c r="K25" t="n">
-        <v>126.7725957830934</v>
+        <v>126.7725957830933</v>
       </c>
       <c r="L25" t="n">
-        <v>317.6541328934442</v>
+        <v>317.6541328934441</v>
       </c>
       <c r="M25" t="n">
         <v>529.5048498322964</v>
@@ -6183,16 +6183,16 @@
         <v>1060.728838847029</v>
       </c>
       <c r="V25" t="n">
-        <v>1060.728838847029</v>
+        <v>1016.064915641342</v>
       </c>
       <c r="W25" t="n">
-        <v>792.8680209563654</v>
+        <v>748.2040977506779</v>
       </c>
       <c r="X25" t="n">
-        <v>792.8680209563654</v>
+        <v>519.7794917584463</v>
       </c>
       <c r="Y25" t="n">
-        <v>792.8680209563654</v>
+        <v>519.7794917584463</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>405.6601668816929</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="C26" t="n">
-        <v>137.7993489910289</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="D26" t="n">
-        <v>137.7993489910289</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="E26" t="n">
-        <v>137.7993489910289</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="F26" t="n">
-        <v>137.7993489910289</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="G26" t="n">
-        <v>137.7993489910289</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="H26" t="n">
-        <v>137.7993489910289</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="I26" t="n">
         <v>21.21457677694059</v>
@@ -6253,25 +6253,25 @@
         <v>1060.728838847029</v>
       </c>
       <c r="S26" t="n">
-        <v>941.3818026630211</v>
+        <v>1025.683124374058</v>
       </c>
       <c r="T26" t="n">
-        <v>941.3818026630211</v>
+        <v>810.7659187274014</v>
       </c>
       <c r="U26" t="n">
-        <v>941.3818026630211</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="V26" t="n">
-        <v>941.3818026630211</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="W26" t="n">
-        <v>941.3818026630211</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="X26" t="n">
-        <v>941.3818026630211</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="Y26" t="n">
-        <v>673.520984772357</v>
+        <v>556.9362125582686</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>198.5935787382776</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="C27" t="n">
-        <v>25.8404636600948</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="D27" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="E27" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="F27" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="G27" t="n">
         <v>21.21457677694059</v>
@@ -6305,25 +6305,25 @@
         <v>21.21457677694059</v>
       </c>
       <c r="J27" t="n">
-        <v>99.56105413752569</v>
+        <v>145.1836071913751</v>
       </c>
       <c r="K27" t="n">
-        <v>165.7560778165763</v>
+        <v>211.3786308704257</v>
       </c>
       <c r="L27" t="n">
-        <v>299.9279337526379</v>
+        <v>345.5504868064873</v>
       </c>
       <c r="M27" t="n">
-        <v>475.3731076203816</v>
+        <v>520.995660674231</v>
       </c>
       <c r="N27" t="n">
-        <v>669.51022197985</v>
+        <v>715.1327750336994</v>
       </c>
       <c r="O27" t="n">
-        <v>932.0406095944898</v>
+        <v>871.0660065900158</v>
       </c>
       <c r="P27" t="n">
-        <v>1038.341035647769</v>
+        <v>977.3664326432954</v>
       </c>
       <c r="Q27" t="n">
         <v>1060.728838847029</v>
@@ -6335,22 +6335,22 @@
         <v>1060.728838847029</v>
       </c>
       <c r="T27" t="n">
-        <v>865.4168741526705</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="U27" t="n">
-        <v>638.5732579890263</v>
+        <v>833.8852226833852</v>
       </c>
       <c r="V27" t="n">
-        <v>404.3220145146271</v>
+        <v>599.6339792089861</v>
       </c>
       <c r="W27" t="n">
-        <v>404.3220145146271</v>
+        <v>347.1194875423195</v>
       </c>
       <c r="X27" t="n">
-        <v>404.3220145146271</v>
+        <v>347.1194875423195</v>
       </c>
       <c r="Y27" t="n">
-        <v>198.5935787382776</v>
+        <v>324.3953650844622</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.21457677694059</v>
+        <v>169.6737931135054</v>
       </c>
       <c r="C28" t="n">
-        <v>21.21457677694059</v>
+        <v>169.6737931135054</v>
       </c>
       <c r="D28" t="n">
-        <v>21.21457677694059</v>
+        <v>169.6737931135054</v>
       </c>
       <c r="E28" t="n">
         <v>21.21457677694059</v>
@@ -6411,25 +6411,25 @@
         <v>1060.728838847029</v>
       </c>
       <c r="S28" t="n">
-        <v>854.5191355537052</v>
+        <v>854.5191355537049</v>
       </c>
       <c r="T28" t="n">
-        <v>628.3899611933907</v>
+        <v>854.5191355537049</v>
       </c>
       <c r="U28" t="n">
-        <v>360.5291433027267</v>
+        <v>586.6583176630409</v>
       </c>
       <c r="V28" t="n">
-        <v>105.0378795987477</v>
+        <v>331.1670539590619</v>
       </c>
       <c r="W28" t="n">
-        <v>105.0378795987477</v>
+        <v>169.6737931135054</v>
       </c>
       <c r="X28" t="n">
-        <v>105.0378795987477</v>
+        <v>169.6737931135054</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0378795987477</v>
+        <v>169.6737931135054</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>556.9362125582686</v>
       </c>
       <c r="D29" t="n">
+        <v>556.9362125582686</v>
+      </c>
+      <c r="E29" t="n">
+        <v>556.9362125582686</v>
+      </c>
+      <c r="F29" t="n">
         <v>289.0753946676046</v>
-      </c>
-      <c r="E29" t="n">
-        <v>21.21457677694059</v>
-      </c>
-      <c r="F29" t="n">
-        <v>21.21457677694059</v>
       </c>
       <c r="G29" t="n">
         <v>21.21457677694059</v>
@@ -6469,46 +6469,46 @@
         <v>123.0979639861826</v>
       </c>
       <c r="L29" t="n">
-        <v>259.4500763632133</v>
+        <v>298.8100261434047</v>
       </c>
       <c r="M29" t="n">
-        <v>521.9804639778531</v>
+        <v>561.3404137580445</v>
       </c>
       <c r="N29" t="n">
-        <v>746.9586290896477</v>
+        <v>751.3891649982116</v>
       </c>
       <c r="O29" t="n">
-        <v>913.4143960213698</v>
+        <v>917.8449319299338</v>
       </c>
       <c r="P29" t="n">
-        <v>1021.842066169839</v>
+        <v>1026.272602078403</v>
       </c>
       <c r="Q29" t="n">
-        <v>1056.298302938466</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="R29" t="n">
         <v>1060.728838847029</v>
       </c>
       <c r="S29" t="n">
-        <v>1060.728838847029</v>
+        <v>906.4025298420029</v>
       </c>
       <c r="T29" t="n">
-        <v>1060.728838847029</v>
+        <v>691.4853241953467</v>
       </c>
       <c r="U29" t="n">
-        <v>1060.728838847029</v>
+        <v>691.4853241953467</v>
       </c>
       <c r="V29" t="n">
-        <v>1060.728838847029</v>
+        <v>691.4853241953467</v>
       </c>
       <c r="W29" t="n">
-        <v>824.7970304489327</v>
+        <v>691.4853241953467</v>
       </c>
       <c r="X29" t="n">
-        <v>824.7970304489327</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="Y29" t="n">
-        <v>824.7970304489327</v>
+        <v>556.9362125582686</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="C30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="D30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="E30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="F30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="G30" t="n">
         <v>21.21457677694059</v>
@@ -6542,25 +6542,25 @@
         <v>21.21457677694059</v>
       </c>
       <c r="J30" t="n">
-        <v>50.67972319378175</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="K30" t="n">
-        <v>116.8747468728324</v>
+        <v>87.4096004559912</v>
       </c>
       <c r="L30" t="n">
-        <v>251.046602808894</v>
+        <v>221.5814563920528</v>
       </c>
       <c r="M30" t="n">
-        <v>513.5769904235337</v>
+        <v>397.0266302597965</v>
       </c>
       <c r="N30" t="n">
-        <v>776.1073780381735</v>
+        <v>591.1637446192649</v>
       </c>
       <c r="O30" t="n">
-        <v>932.0406095944898</v>
+        <v>747.0969761755812</v>
       </c>
       <c r="P30" t="n">
-        <v>1038.341035647769</v>
+        <v>853.3974022288608</v>
       </c>
       <c r="Q30" t="n">
         <v>1060.728838847029</v>
@@ -6575,19 +6575,19 @@
         <v>1060.728838847029</v>
       </c>
       <c r="U30" t="n">
-        <v>920.2356462887785</v>
+        <v>850.6454476983902</v>
       </c>
       <c r="V30" t="n">
-        <v>685.9844028143793</v>
+        <v>616.394204223991</v>
       </c>
       <c r="W30" t="n">
-        <v>433.4699111477127</v>
+        <v>363.8797125573243</v>
       </c>
       <c r="X30" t="n">
-        <v>226.9430125532901</v>
+        <v>157.3528139629018</v>
       </c>
       <c r="Y30" t="n">
-        <v>21.21457677694059</v>
+        <v>157.3528139629018</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.6845582073831</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="C31" t="n">
-        <v>615.6577370647545</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="D31" t="n">
-        <v>615.6577370647545</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="E31" t="n">
-        <v>467.1985207281897</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="F31" t="n">
-        <v>467.1985207281897</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="G31" t="n">
-        <v>298.6685344270438</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7857678170288</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="I31" t="n">
         <v>21.21457677694059</v>
@@ -6624,16 +6624,16 @@
         <v>21.21457677694059</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7725957830934</v>
+        <v>126.7725957830933</v>
       </c>
       <c r="L31" t="n">
-        <v>317.6541328934442</v>
+        <v>317.6541328934441</v>
       </c>
       <c r="M31" t="n">
-        <v>529.5048498322964</v>
+        <v>529.5048498322965</v>
       </c>
       <c r="N31" t="n">
-        <v>741.459492126818</v>
+        <v>741.4594921268181</v>
       </c>
       <c r="O31" t="n">
         <v>921.8973135833444</v>
@@ -6645,28 +6645,28 @@
         <v>1060.728838847029</v>
       </c>
       <c r="R31" t="n">
-        <v>990.8942615007074</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="S31" t="n">
-        <v>784.6845582073831</v>
+        <v>918.3312078933168</v>
       </c>
       <c r="T31" t="n">
-        <v>784.6845582073831</v>
+        <v>692.2020335330023</v>
       </c>
       <c r="U31" t="n">
-        <v>784.6845582073831</v>
+        <v>692.2020335330023</v>
       </c>
       <c r="V31" t="n">
-        <v>784.6845582073831</v>
+        <v>436.7107698290233</v>
       </c>
       <c r="W31" t="n">
-        <v>784.6845582073831</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="X31" t="n">
-        <v>784.6845582073831</v>
+        <v>168.8499519383593</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6845582073831</v>
+        <v>168.8499519383593</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>824.7970304489327</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="C32" t="n">
-        <v>556.9362125582686</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="D32" t="n">
-        <v>556.9362125582686</v>
+        <v>289.0753946676046</v>
       </c>
       <c r="E32" t="n">
         <v>289.0753946676046</v>
       </c>
       <c r="F32" t="n">
-        <v>289.0753946676046</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="G32" t="n">
         <v>21.21457677694059</v>
@@ -6700,25 +6700,25 @@
         <v>21.21457677694059</v>
       </c>
       <c r="J32" t="n">
-        <v>42.19047488020671</v>
+        <v>161.485113508206</v>
       </c>
       <c r="K32" t="n">
-        <v>123.0979639861826</v>
+        <v>242.3926026141819</v>
       </c>
       <c r="L32" t="n">
-        <v>259.4500763632133</v>
+        <v>378.7447149912125</v>
       </c>
       <c r="M32" t="n">
-        <v>442.0457751300453</v>
+        <v>561.3404137580445</v>
       </c>
       <c r="N32" t="n">
-        <v>632.0945263702124</v>
+        <v>751.3891649982116</v>
       </c>
       <c r="O32" t="n">
-        <v>798.5502933019345</v>
+        <v>917.8449319299338</v>
       </c>
       <c r="P32" t="n">
-        <v>906.9779634504038</v>
+        <v>1026.272602078403</v>
       </c>
       <c r="Q32" t="n">
         <v>1060.728838847029</v>
@@ -6736,16 +6736,16 @@
         <v>1060.728838847029</v>
       </c>
       <c r="V32" t="n">
-        <v>1060.728838847029</v>
+        <v>824.7970304489327</v>
       </c>
       <c r="W32" t="n">
-        <v>1060.728838847029</v>
+        <v>824.7970304489327</v>
       </c>
       <c r="X32" t="n">
-        <v>1060.728838847029</v>
+        <v>556.9362125582686</v>
       </c>
       <c r="Y32" t="n">
-        <v>1060.728838847029</v>
+        <v>289.0753946676046</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>465.6184338334574</v>
+        <v>193.9676918551234</v>
       </c>
       <c r="C33" t="n">
-        <v>292.8653187552746</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="D33" t="n">
-        <v>178.8241057740859</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="E33" t="n">
         <v>21.21457677694059</v>
@@ -6779,52 +6779,52 @@
         <v>21.21457677694059</v>
       </c>
       <c r="J33" t="n">
-        <v>21.21457677694059</v>
+        <v>145.1836071913751</v>
       </c>
       <c r="K33" t="n">
-        <v>87.4096004559912</v>
+        <v>211.3786308704257</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5814563920528</v>
+        <v>345.5504868064873</v>
       </c>
       <c r="M33" t="n">
-        <v>397.0266302597965</v>
+        <v>520.995660674231</v>
       </c>
       <c r="N33" t="n">
-        <v>591.1637446192649</v>
+        <v>776.1073780381735</v>
       </c>
       <c r="O33" t="n">
-        <v>747.0969761755812</v>
+        <v>932.0406095944898</v>
       </c>
       <c r="P33" t="n">
-        <v>853.3974022288608</v>
+        <v>1038.341035647769</v>
       </c>
       <c r="Q33" t="n">
         <v>1060.728838847029</v>
       </c>
       <c r="R33" t="n">
-        <v>1060.728838847029</v>
+        <v>1043.242357935408</v>
       </c>
       <c r="S33" t="n">
-        <v>913.444890194483</v>
+        <v>1043.242357935408</v>
       </c>
       <c r="T33" t="n">
-        <v>718.1329255001241</v>
+        <v>1043.242357935408</v>
       </c>
       <c r="U33" t="n">
-        <v>718.1329255001241</v>
+        <v>1043.242357935408</v>
       </c>
       <c r="V33" t="n">
-        <v>718.1329255001241</v>
+        <v>819.2531704197</v>
       </c>
       <c r="W33" t="n">
-        <v>465.6184338334574</v>
+        <v>566.7386787530334</v>
       </c>
       <c r="X33" t="n">
-        <v>465.6184338334574</v>
+        <v>566.7386787530334</v>
       </c>
       <c r="Y33" t="n">
-        <v>465.6184338334574</v>
+        <v>361.0102429766839</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>712.0851965712815</v>
+        <v>506.4067593821338</v>
       </c>
       <c r="C34" t="n">
-        <v>543.0583754286529</v>
+        <v>337.3799382395052</v>
       </c>
       <c r="D34" t="n">
-        <v>392.5477021816636</v>
+        <v>337.3799382395052</v>
       </c>
       <c r="E34" t="n">
-        <v>244.0884858450988</v>
+        <v>337.3799382395052</v>
       </c>
       <c r="F34" t="n">
-        <v>96.45311068368011</v>
+        <v>189.7445630780865</v>
       </c>
       <c r="G34" t="n">
-        <v>96.45311068368011</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="H34" t="n">
-        <v>96.45311068368011</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="I34" t="n">
-        <v>36.32996944890306</v>
+        <v>21.21457677694059</v>
       </c>
       <c r="J34" t="n">
         <v>21.21457677694059</v>
@@ -6867,7 +6867,7 @@
         <v>317.6541328934441</v>
       </c>
       <c r="M34" t="n">
-        <v>529.5048498322964</v>
+        <v>529.5048498322965</v>
       </c>
       <c r="N34" t="n">
         <v>741.4594921268181</v>
@@ -6882,28 +6882,28 @@
         <v>1060.728838847029</v>
       </c>
       <c r="R34" t="n">
-        <v>933.0434530033706</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="S34" t="n">
-        <v>933.0434530033706</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="T34" t="n">
-        <v>933.0434530033706</v>
+        <v>1060.728838847029</v>
       </c>
       <c r="U34" t="n">
-        <v>933.0434530033706</v>
+        <v>916.7340840518239</v>
       </c>
       <c r="V34" t="n">
-        <v>933.0434530033706</v>
+        <v>916.7340840518239</v>
       </c>
       <c r="W34" t="n">
-        <v>933.0434530033706</v>
+        <v>916.7340840518239</v>
       </c>
       <c r="X34" t="n">
-        <v>933.0434530033706</v>
+        <v>688.3094780595923</v>
       </c>
       <c r="Y34" t="n">
-        <v>712.0851965712815</v>
+        <v>688.3094780595923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>609.6069947096541</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="C35" t="n">
-        <v>609.6069947096541</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="D35" t="n">
-        <v>609.6069947096541</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="E35" t="n">
-        <v>609.6069947096541</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="F35" t="n">
-        <v>609.6069947096541</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="G35" t="n">
-        <v>372.4858796194436</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="H35" t="n">
-        <v>135.364764529233</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="I35" t="n">
-        <v>18.77999231514468</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="J35" t="n">
         <v>39.7558904184108</v>
@@ -6958,31 +6958,31 @@
         <v>904.5433789886079</v>
       </c>
       <c r="Q35" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572344</v>
       </c>
       <c r="R35" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="S35" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="T35" t="n">
-        <v>938.9996157572339</v>
+        <v>724.0824101105775</v>
       </c>
       <c r="U35" t="n">
-        <v>938.9996157572339</v>
+        <v>486.9612950203669</v>
       </c>
       <c r="V35" t="n">
-        <v>701.8785006670232</v>
+        <v>255.9011074053552</v>
       </c>
       <c r="W35" t="n">
-        <v>701.8785006670232</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="X35" t="n">
-        <v>701.8785006670232</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="Y35" t="n">
-        <v>701.8785006670232</v>
+        <v>18.77999231514467</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>331.1789225668517</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="C36" t="n">
-        <v>331.1789225668517</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="D36" t="n">
-        <v>263.1553240679532</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="E36" t="n">
-        <v>263.1553240679532</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="F36" t="n">
-        <v>118.1995340845701</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="G36" t="n">
-        <v>118.1995340845701</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="H36" t="n">
-        <v>18.77999231514468</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="I36" t="n">
-        <v>18.77999231514468</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="J36" t="n">
-        <v>84.42898710605353</v>
+        <v>46.16369656560643</v>
       </c>
       <c r="K36" t="n">
-        <v>150.6240107851041</v>
+        <v>112.358720244657</v>
       </c>
       <c r="L36" t="n">
-        <v>284.7958667211657</v>
+        <v>246.5305761807186</v>
       </c>
       <c r="M36" t="n">
-        <v>460.2410405889094</v>
+        <v>421.9757500484623</v>
       </c>
       <c r="N36" t="n">
-        <v>654.3781549483779</v>
+        <v>654.3781549483776</v>
       </c>
       <c r="O36" t="n">
-        <v>810.3113865046942</v>
+        <v>810.3113865046939</v>
       </c>
       <c r="P36" t="n">
-        <v>916.6118125579737</v>
+        <v>916.6118125579735</v>
       </c>
       <c r="Q36" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="R36" t="n">
-        <v>938.9996157572339</v>
+        <v>923.5228656378212</v>
       </c>
       <c r="S36" t="n">
-        <v>938.9996157572339</v>
+        <v>923.5228656378212</v>
       </c>
       <c r="T36" t="n">
-        <v>938.9996157572339</v>
+        <v>923.5228656378212</v>
       </c>
       <c r="U36" t="n">
-        <v>938.9996157572339</v>
+        <v>696.6792494741769</v>
       </c>
       <c r="V36" t="n">
-        <v>704.7483722828347</v>
+        <v>462.4280059997777</v>
       </c>
       <c r="W36" t="n">
-        <v>704.7483722828347</v>
+        <v>225.3068909095672</v>
       </c>
       <c r="X36" t="n">
-        <v>498.2214736884122</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="Y36" t="n">
-        <v>498.2214736884122</v>
+        <v>18.77999231514467</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.3349590408967</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="C37" t="n">
-        <v>356.3081378982681</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="D37" t="n">
-        <v>356.3081378982681</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="E37" t="n">
-        <v>356.3081378982681</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="F37" t="n">
-        <v>356.3081378982681</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="G37" t="n">
-        <v>187.7781515971222</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="H37" t="n">
-        <v>33.89538498710714</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="I37" t="n">
-        <v>33.89538498710714</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="J37" t="n">
-        <v>18.77999231514468</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="K37" t="n">
-        <v>18.77999231514468</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="L37" t="n">
         <v>209.6615294254956</v>
@@ -7113,34 +7113,34 @@
         <v>813.9047101153958</v>
       </c>
       <c r="P37" t="n">
-        <v>931.3413369522011</v>
+        <v>931.3413369522009</v>
       </c>
       <c r="Q37" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="R37" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="S37" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="T37" t="n">
-        <v>746.2932154729858</v>
+        <v>938.9996157572336</v>
       </c>
       <c r="U37" t="n">
-        <v>746.2932154729858</v>
+        <v>701.8785006670231</v>
       </c>
       <c r="V37" t="n">
-        <v>746.2932154729858</v>
+        <v>464.7573855768126</v>
       </c>
       <c r="W37" t="n">
-        <v>746.2932154729858</v>
+        <v>247.2045983073763</v>
       </c>
       <c r="X37" t="n">
-        <v>746.2932154729858</v>
+        <v>18.77999231514467</v>
       </c>
       <c r="Y37" t="n">
-        <v>525.3349590408967</v>
+        <v>18.77999231514467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>701.8785006670232</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="C38" t="n">
-        <v>701.8785006670232</v>
+        <v>547.5521916619973</v>
       </c>
       <c r="D38" t="n">
-        <v>701.8785006670232</v>
+        <v>310.4310765717865</v>
       </c>
       <c r="E38" t="n">
-        <v>464.7573855768126</v>
+        <v>310.4310765717865</v>
       </c>
       <c r="F38" t="n">
-        <v>227.636270486602</v>
+        <v>73.30996148157567</v>
       </c>
       <c r="G38" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H38" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I38" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J38" t="n">
-        <v>39.75589041841084</v>
+        <v>39.7558904184109</v>
       </c>
       <c r="K38" t="n">
-        <v>120.6633795243868</v>
+        <v>120.6633795243874</v>
       </c>
       <c r="L38" t="n">
-        <v>257.0154919014171</v>
+        <v>257.015491901418</v>
       </c>
       <c r="M38" t="n">
-        <v>439.611190668249</v>
+        <v>439.6111906682501</v>
       </c>
       <c r="N38" t="n">
-        <v>629.6599419084162</v>
+        <v>629.6599419084172</v>
       </c>
       <c r="O38" t="n">
-        <v>796.1157088401383</v>
+        <v>796.1157088401392</v>
       </c>
       <c r="P38" t="n">
-        <v>904.5433789886074</v>
+        <v>904.5433789886082</v>
       </c>
       <c r="Q38" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R38" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="T38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="U38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="V38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="W38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="X38" t="n">
-        <v>938.9996157572339</v>
+        <v>784.6733067522082</v>
       </c>
       <c r="Y38" t="n">
-        <v>701.8785006670232</v>
+        <v>784.6733067522082</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>455.9793669487085</v>
+        <v>368.009894634378</v>
       </c>
       <c r="C39" t="n">
-        <v>455.9793669487085</v>
+        <v>368.009894634378</v>
       </c>
       <c r="D39" t="n">
-        <v>455.9793669487085</v>
+        <v>220.4215879933219</v>
       </c>
       <c r="E39" t="n">
-        <v>298.3698379515632</v>
+        <v>62.8120589961766</v>
       </c>
       <c r="F39" t="n">
-        <v>298.3698379515632</v>
+        <v>62.8120589961766</v>
       </c>
       <c r="G39" t="n">
-        <v>162.231600765602</v>
+        <v>62.8120589961766</v>
       </c>
       <c r="H39" t="n">
-        <v>62.81205899617659</v>
+        <v>62.8120589961766</v>
       </c>
       <c r="I39" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J39" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K39" t="n">
-        <v>84.97501599419529</v>
+        <v>112.3587202446579</v>
       </c>
       <c r="L39" t="n">
-        <v>284.7958667211657</v>
+        <v>246.5305761807195</v>
       </c>
       <c r="M39" t="n">
-        <v>460.2410405889094</v>
+        <v>421.9757500484632</v>
       </c>
       <c r="N39" t="n">
-        <v>654.3781549483779</v>
+        <v>654.3781549483788</v>
       </c>
       <c r="O39" t="n">
-        <v>810.3113865046942</v>
+        <v>810.3113865046951</v>
       </c>
       <c r="P39" t="n">
-        <v>916.6118125579737</v>
+        <v>916.6118125579746</v>
       </c>
       <c r="Q39" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R39" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S39" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T39" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="U39" t="n">
-        <v>712.1559995935896</v>
+        <v>808.7880367031996</v>
       </c>
       <c r="V39" t="n">
-        <v>712.1559995935896</v>
+        <v>574.5367932288005</v>
       </c>
       <c r="W39" t="n">
-        <v>662.506265543131</v>
+        <v>574.5367932288005</v>
       </c>
       <c r="X39" t="n">
-        <v>455.9793669487085</v>
+        <v>368.009894634378</v>
       </c>
       <c r="Y39" t="n">
-        <v>455.9793669487085</v>
+        <v>368.009894634378</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.77999231514468</v>
+        <v>187.8068134577733</v>
       </c>
       <c r="C40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K40" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="L40" t="n">
         <v>209.6615294254956</v>
@@ -7350,34 +7350,34 @@
         <v>813.9047101153958</v>
       </c>
       <c r="P40" t="n">
-        <v>931.3413369522011</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="Q40" t="n">
-        <v>938.9996157572339</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R40" t="n">
-        <v>925.3611001492045</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S40" t="n">
-        <v>719.1513968558802</v>
+        <v>732.7899124639105</v>
       </c>
       <c r="T40" t="n">
-        <v>493.0222224955659</v>
+        <v>732.7899124639105</v>
       </c>
       <c r="U40" t="n">
-        <v>255.9011074053553</v>
+        <v>732.7899124639105</v>
       </c>
       <c r="V40" t="n">
-        <v>18.77999231514468</v>
+        <v>732.7899124639105</v>
       </c>
       <c r="W40" t="n">
-        <v>18.77999231514468</v>
+        <v>598.1341381274633</v>
       </c>
       <c r="X40" t="n">
-        <v>18.77999231514468</v>
+        <v>369.7095321352317</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.77999231514468</v>
+        <v>369.7095321352317</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>464.7573855768127</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="C41" t="n">
-        <v>464.7573855768127</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="D41" t="n">
-        <v>464.7573855768127</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="E41" t="n">
-        <v>464.7573855768127</v>
+        <v>255.9011074053555</v>
       </c>
       <c r="F41" t="n">
-        <v>464.7573855768127</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G41" t="n">
-        <v>255.9011074053553</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H41" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I41" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J41" t="n">
-        <v>39.7558904184108</v>
+        <v>39.75589041841081</v>
       </c>
       <c r="K41" t="n">
         <v>120.6633795243867</v>
@@ -7435,28 +7435,28 @@
         <v>938.9996157572344</v>
       </c>
       <c r="R41" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S41" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T41" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="U41" t="n">
-        <v>938.999615757234</v>
+        <v>730.1433375857771</v>
       </c>
       <c r="V41" t="n">
-        <v>938.999615757234</v>
+        <v>730.1433375857771</v>
       </c>
       <c r="W41" t="n">
-        <v>938.999615757234</v>
+        <v>730.1433375857771</v>
       </c>
       <c r="X41" t="n">
-        <v>701.8785006670233</v>
+        <v>730.1433375857771</v>
       </c>
       <c r="Y41" t="n">
-        <v>464.7573855768127</v>
+        <v>493.0222224955663</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321.3453112956731</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="C42" t="n">
-        <v>321.3453112956731</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="D42" t="n">
-        <v>321.3453112956731</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="E42" t="n">
-        <v>163.7357822985278</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="F42" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="G42" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H42" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I42" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J42" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K42" t="n">
-        <v>84.97501599419529</v>
+        <v>84.9750159941953</v>
       </c>
       <c r="L42" t="n">
         <v>219.1468719302569</v>
@@ -7511,31 +7511,31 @@
         <v>850.962817767065</v>
       </c>
       <c r="Q42" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R42" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S42" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T42" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="U42" t="n">
-        <v>712.1559995935897</v>
+        <v>712.1559995935905</v>
       </c>
       <c r="V42" t="n">
-        <v>477.9047561191906</v>
+        <v>477.9047561191914</v>
       </c>
       <c r="W42" t="n">
-        <v>321.3453112956731</v>
+        <v>240.7836410289806</v>
       </c>
       <c r="X42" t="n">
-        <v>321.3453112956731</v>
+        <v>34.25674243455808</v>
       </c>
       <c r="Y42" t="n">
-        <v>321.3453112956731</v>
+        <v>18.7799923151447</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.8785006670233</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="C43" t="n">
-        <v>649.0306360332258</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="D43" t="n">
-        <v>498.5199627862365</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="E43" t="n">
-        <v>350.0607464496717</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="F43" t="n">
-        <v>202.425371288253</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="G43" t="n">
-        <v>33.89538498710714</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="H43" t="n">
-        <v>33.89538498710714</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="I43" t="n">
-        <v>33.89538498710714</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="J43" t="n">
-        <v>18.77999231514468</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="K43" t="n">
-        <v>124.3380113212973</v>
+        <v>18.7799923151447</v>
       </c>
       <c r="L43" t="n">
-        <v>315.2195484316481</v>
+        <v>203.5831886086823</v>
       </c>
       <c r="M43" t="n">
-        <v>527.0702653705004</v>
+        <v>415.4339055475345</v>
       </c>
       <c r="N43" t="n">
-        <v>739.0249076650221</v>
+        <v>627.3885478420561</v>
       </c>
       <c r="O43" t="n">
-        <v>919.4627291215484</v>
+        <v>807.8263692985824</v>
       </c>
       <c r="P43" t="n">
-        <v>931.3413369522012</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="Q43" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="R43" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="S43" t="n">
-        <v>938.999615757234</v>
+        <v>938.9996157572348</v>
       </c>
       <c r="T43" t="n">
-        <v>938.999615757234</v>
+        <v>712.8704413969203</v>
       </c>
       <c r="U43" t="n">
-        <v>938.999615757234</v>
+        <v>475.7493263067095</v>
       </c>
       <c r="V43" t="n">
-        <v>701.8785006670233</v>
+        <v>238.6282112164987</v>
       </c>
       <c r="W43" t="n">
-        <v>701.8785006670233</v>
+        <v>238.6282112164987</v>
       </c>
       <c r="X43" t="n">
-        <v>701.8785006670233</v>
+        <v>187.3099786162906</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.8785006670233</v>
+        <v>187.3099786162906</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>227.6362704866021</v>
+        <v>701.8785006670233</v>
       </c>
       <c r="C44" t="n">
-        <v>227.6362704866021</v>
+        <v>701.8785006670233</v>
       </c>
       <c r="D44" t="n">
-        <v>18.77999231514468</v>
+        <v>464.7573855768127</v>
       </c>
       <c r="E44" t="n">
-        <v>18.77999231514468</v>
+        <v>464.7573855768127</v>
       </c>
       <c r="F44" t="n">
-        <v>18.77999231514468</v>
+        <v>255.9011074053553</v>
       </c>
       <c r="G44" t="n">
         <v>18.77999231514468</v>
@@ -7648,22 +7648,22 @@
         <v>18.77999231514468</v>
       </c>
       <c r="J44" t="n">
-        <v>39.75589041841084</v>
+        <v>39.75589041841079</v>
       </c>
       <c r="K44" t="n">
         <v>120.6633795243868</v>
       </c>
       <c r="L44" t="n">
-        <v>257.0154919014174</v>
+        <v>257.0154919014175</v>
       </c>
       <c r="M44" t="n">
-        <v>439.6111906682494</v>
+        <v>439.6111906682493</v>
       </c>
       <c r="N44" t="n">
         <v>629.6599419084162</v>
       </c>
       <c r="O44" t="n">
-        <v>796.1157088401383</v>
+        <v>796.115708840138</v>
       </c>
       <c r="P44" t="n">
         <v>904.5433789886074</v>
@@ -7693,7 +7693,7 @@
         <v>701.8785006670233</v>
       </c>
       <c r="Y44" t="n">
-        <v>464.7573855768127</v>
+        <v>701.8785006670233</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342.2152493532795</v>
+        <v>18.77999231514468</v>
       </c>
       <c r="C45" t="n">
-        <v>169.4621342750967</v>
+        <v>18.77999231514468</v>
       </c>
       <c r="D45" t="n">
-        <v>163.7357822985278</v>
+        <v>18.77999231514468</v>
       </c>
       <c r="E45" t="n">
-        <v>163.7357822985278</v>
+        <v>18.77999231514468</v>
       </c>
       <c r="F45" t="n">
         <v>18.77999231514468</v>
@@ -7727,10 +7727,10 @@
         <v>18.77999231514468</v>
       </c>
       <c r="J45" t="n">
-        <v>84.42898710605353</v>
+        <v>18.77999231514468</v>
       </c>
       <c r="K45" t="n">
-        <v>150.6240107851041</v>
+        <v>84.97501599419529</v>
       </c>
       <c r="L45" t="n">
         <v>284.7958667211657</v>
@@ -7751,28 +7751,28 @@
         <v>938.999615757234</v>
       </c>
       <c r="R45" t="n">
-        <v>921.5131348456121</v>
+        <v>938.999615757234</v>
       </c>
       <c r="S45" t="n">
-        <v>921.5131348456121</v>
+        <v>938.999615757234</v>
       </c>
       <c r="T45" t="n">
-        <v>921.5131348456121</v>
+        <v>938.999615757234</v>
       </c>
       <c r="U45" t="n">
-        <v>921.5131348456121</v>
+        <v>712.1559995935897</v>
       </c>
       <c r="V45" t="n">
-        <v>921.5131348456121</v>
+        <v>477.9047561191906</v>
       </c>
       <c r="W45" t="n">
-        <v>921.5131348456121</v>
+        <v>240.78364102898</v>
       </c>
       <c r="X45" t="n">
-        <v>714.9862362511896</v>
+        <v>34.25674243455748</v>
       </c>
       <c r="Y45" t="n">
-        <v>509.25780047484</v>
+        <v>18.77999231514468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>633.9152433612633</v>
+        <v>310.0094662873721</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9152433612633</v>
+        <v>310.0094662873721</v>
       </c>
       <c r="D46" t="n">
-        <v>483.4045701142741</v>
+        <v>310.0094662873721</v>
       </c>
       <c r="E46" t="n">
-        <v>334.9453537777093</v>
+        <v>310.0094662873721</v>
       </c>
       <c r="F46" t="n">
-        <v>187.3099786162906</v>
+        <v>162.3740911259534</v>
       </c>
       <c r="G46" t="n">
         <v>18.77999231514468</v>
@@ -7812,16 +7812,16 @@
         <v>18.77999231514468</v>
       </c>
       <c r="L46" t="n">
-        <v>203.5831886086815</v>
+        <v>209.6615294254956</v>
       </c>
       <c r="M46" t="n">
-        <v>415.4339055475337</v>
+        <v>421.5122463643478</v>
       </c>
       <c r="N46" t="n">
-        <v>627.3885478420553</v>
+        <v>633.4668886588695</v>
       </c>
       <c r="O46" t="n">
-        <v>807.8263692985817</v>
+        <v>813.9047101153958</v>
       </c>
       <c r="P46" t="n">
         <v>938.999615757234</v>
@@ -7839,19 +7839,19 @@
         <v>712.8704413969197</v>
       </c>
       <c r="U46" t="n">
-        <v>633.9152433612633</v>
+        <v>712.8704413969197</v>
       </c>
       <c r="V46" t="n">
-        <v>633.9152433612633</v>
+        <v>712.8704413969197</v>
       </c>
       <c r="W46" t="n">
-        <v>633.9152433612633</v>
+        <v>712.8704413969197</v>
       </c>
       <c r="X46" t="n">
-        <v>633.9152433612633</v>
+        <v>712.8704413969197</v>
       </c>
       <c r="Y46" t="n">
-        <v>633.9152433612633</v>
+        <v>491.9121849648305</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.86978787137264</v>
+        <v>63.86978787137261</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>5.913433911162059</v>
+        <v>72.2255498615756</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>66.31211595041407</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>4.389255376062252</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
-        <v>162.8339514044155</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M13" t="n">
         <v>185.6500473458235</v>
@@ -8865,10 +8865,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>27.64282602542508</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.22104155626273</v>
+        <v>60.22104155626272</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.86978787137264</v>
+        <v>63.86978787137261</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>5.913433911162059</v>
+        <v>5.913433911162045</v>
       </c>
       <c r="K15" t="n">
-        <v>8.77955935226008</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>57.53255659815335</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>66.31211595041353</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0135169984386</v>
+        <v>4.389255376062223</v>
       </c>
       <c r="L16" t="n">
         <v>168.9736896032166</v>
@@ -9096,13 +9096,13 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>58.19079054046345</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P16" t="n">
-        <v>140.4068258466027</v>
+        <v>126.5314524912025</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>72.22554986157596</v>
+        <v>5.913433911162059</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>66.31211595041381</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>4.389255376062252</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L19" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M19" t="n">
-        <v>185.6500473458235</v>
+        <v>65.15041236804706</v>
       </c>
       <c r="N19" t="n">
         <v>178.6904255182403</v>
@@ -9339,10 +9339,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2670876478014</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.22104155626273</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>5.913433911162059</v>
+        <v>72.22554986157594</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>66.31211595041339</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2670876478009</v>
+        <v>134.2670876478014</v>
       </c>
       <c r="Q22" t="n">
         <v>60.22104155626273</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>87.96486237060213</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>98.8468885575883</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>186.8117509281905</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>85.05128983094497</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>107.6738950084075</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>61.59050808532717</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10053,7 +10053,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286169</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>39.75752503049645</v>
       </c>
       <c r="M29" t="n">
         <v>80.7421099472806</v>
       </c>
       <c r="N29" t="n">
-        <v>35.28223623396713</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>63.86978787137264</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>35.67620806958749</v>
+        <v>5.913433911162059</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>87.96486237060213</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>69.08411439916296</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>186.8117509281905</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>120.499634977777</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.4996349777769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>63.86978787137264</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>5.913433911162059</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>61.59050808532734</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.8117509281905</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>72.22554986157503</v>
+        <v>33.5737412348608</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.65180862671406</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P37" t="n">
-        <v>126.5314524912018</v>
+        <v>126.5314524912015</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10904,16 +10904,16 @@
         <v>5.913433911162059</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.66030732369958</v>
       </c>
       <c r="L39" t="n">
-        <v>66.31211595041296</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.65180862671428</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P40" t="n">
-        <v>126.5314524912018</v>
+        <v>134.2670876478014</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>60.22104155626273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.31211595041299</v>
+        <v>66.3121159504138</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11220,10 +11220,10 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>4.389255376062252</v>
       </c>
       <c r="L43" t="n">
-        <v>168.9736896032166</v>
+        <v>162.8339514044153</v>
       </c>
       <c r="M43" t="n">
         <v>185.6500473458235</v>
@@ -11235,10 +11235,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P43" t="n">
-        <v>19.90719086882554</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>60.22104155626273</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>72.22554986157503</v>
+        <v>5.913433911162059</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>66.31211595041296</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>4.389255376062252</v>
       </c>
       <c r="L46" t="n">
-        <v>162.8339514044145</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
         <v>185.6500473458235</v>
@@ -11472,7 +11472,7 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>140.4068258466027</v>
+        <v>134.2670876478006</v>
       </c>
       <c r="Q46" t="n">
         <v>60.22104155626273</v>
@@ -23266,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>291.7692448574919</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>172.5439595412321</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>177.7754306007345</v>
       </c>
       <c r="H11" t="n">
-        <v>79.53771561507853</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7830459149763</v>
+        <v>152.7830459149762</v>
       </c>
       <c r="T11" t="n">
         <v>212.7680335901896</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2914091074414</v>
+        <v>44.52369371769831</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>93.78331758321065</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>115.7802130612459</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.8263188754996</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>43.59174601422158</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.3116161025057</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.8111091660209</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>193.3588450474153</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>224.5751800020078</v>
@@ -23402,7 +23402,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>182.6676396733069</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.2516042340614604</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.96423874524282</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>126.4085319852223</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>204.1476062603911</v>
       </c>
       <c r="T13" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>285.9952757096838</v>
+        <v>51.24537177037513</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23481,7 +23481,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7504880791423</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23503,19 +23503,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>291.7692448574919</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>172.5439595412323</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>177.7754306007346</v>
+        <v>358.5406650652766</v>
       </c>
       <c r="H14" t="n">
-        <v>79.5377156150787</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>152.7830459149763</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.7680335901896</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2914091074414</v>
+        <v>16.54150516813272</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>93.78331758321065</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>136.1116951918607</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H15" t="n">
-        <v>98.42534635173116</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>43.59174601422158</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.3116161025057</v>
+        <v>17.31161610250568</v>
       </c>
       <c r="S15" t="n">
         <v>145.8111091660209</v>
       </c>
       <c r="T15" t="n">
-        <v>193.3588450474153</v>
+        <v>119.5179635299874</v>
       </c>
       <c r="U15" t="n">
         <v>224.5751800020078</v>
@@ -23636,13 +23636,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>15.23944281069134</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.36795435348782</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>154.946681078036</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>14.96423874524282</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>204.1476062603911</v>
       </c>
       <c r="T16" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>285.9952757096838</v>
@@ -23718,10 +23718,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>105.1597336310057</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>291.7692448574919</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>172.5439595412321</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>177.7754306007345</v>
+        <v>412.5253345400432</v>
       </c>
       <c r="H17" t="n">
-        <v>79.53771561507858</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>152.7830459149763</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2914091074414</v>
+        <v>16.54150516813272</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>252.5666816986335</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23800,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>151.9371678119271</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>21.79775607905032</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.42534635173116</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>43.59174601422158</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.3116161025057</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>224.5751800020078</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>231.2088715224768</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>15.23944281069134</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23892,16 +23892,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>156.1068997948509</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>141.9943634989365</v>
       </c>
       <c r="G19" t="n">
         <v>166.8446864381344</v>
@@ -23913,7 +23913,7 @@
         <v>122.3354791296873</v>
       </c>
       <c r="J19" t="n">
-        <v>14.96423874524284</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>126.4085319852223</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>204.1476062603911</v>
       </c>
       <c r="T19" t="n">
         <v>223.8678826167112</v>
       </c>
       <c r="U19" t="n">
-        <v>51.24537177037514</v>
+        <v>285.9952757096838</v>
       </c>
       <c r="V19" t="n">
         <v>18.18644712763046</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>51.34267294810684</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>132.235191739634</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23986,10 +23986,10 @@
         <v>412.5253345400432</v>
       </c>
       <c r="H20" t="n">
-        <v>314.2876195543873</v>
+        <v>79.53771561507858</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2914091074414</v>
+        <v>175.3248692835556</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>93.78331758321065</v>
       </c>
       <c r="W20" t="n">
-        <v>115.780213061246</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>197.5459502090416</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24050,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24062,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>98.42534635173116</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>43.59174601422158</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>17.3116161025057</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.8111091660209</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>80.90498620364257</v>
       </c>
       <c r="U21" t="n">
-        <v>99.25376798905303</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>15.23944281069134</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24141,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>63.08388358244663</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S22" t="n">
         <v>204.1476062603911</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>285.9952757096838</v>
+        <v>51.24537177037513</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>35.2866143545987</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>51.34267294810684</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.5342002796377</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24220,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>147.3431248282858</v>
+        <v>147.3431248282859</v>
       </c>
       <c r="H23" t="n">
-        <v>49.10540984262991</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I23" t="n">
-        <v>115.4189244919474</v>
+        <v>80.72366716370527</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>152.7830459149763</v>
       </c>
       <c r="T23" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2914091074414</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24271,10 +24271,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>137.2891088170536</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>121.5048620394784</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>99.21570773614998</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -24296,10 +24296,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>98.42534635173116</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>17.3116161025057</v>
       </c>
       <c r="S24" t="n">
-        <v>5.848989221146297</v>
+        <v>145.8111091660209</v>
       </c>
       <c r="T24" t="n">
         <v>193.3588450474153</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>134.6906456168719</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>285.9952757096838</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>208.7190670933085</v>
       </c>
       <c r="W25" t="n">
         <v>20.91036717565817</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118.5342002796377</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>101.8028859671853</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>117.9358260435301</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24460,10 +24460,10 @@
         <v>412.5253345400432</v>
       </c>
       <c r="H26" t="n">
-        <v>314.2876195543873</v>
+        <v>49.10540984262991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>34.62948009280795</v>
+        <v>118.0877885867341</v>
       </c>
       <c r="T26" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2914091074414</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>121.5048620394784</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>141.5327955603229</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -24536,7 +24536,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>98.42534635173116</v>
@@ -24575,7 +24575,7 @@
         <v>145.8111091660209</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>193.3588450474153</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>181.1742701853074</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.09862169709473</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24609,7 +24609,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U28" t="n">
         <v>20.81306599792646</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>126.2142486503146</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>118.5342002796377</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>91.42252304284102</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>117.9358260435301</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>142.1116537687835</v>
       </c>
       <c r="G29" t="n">
-        <v>412.5253345400432</v>
+        <v>147.3431248282859</v>
       </c>
       <c r="H29" t="n">
         <v>314.2876195543873</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>152.7830459149763</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2914091074414</v>
@@ -24742,10 +24742,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>116.9576266864388</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>237.6579786104621</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24773,7 +24773,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>134.7768548141015</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>98.42534635173116</v>
@@ -24815,7 +24815,7 @@
         <v>193.3588450474153</v>
       </c>
       <c r="U30" t="n">
-        <v>85.48691936933935</v>
+        <v>16.59262276485487</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24840,25 +24840,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J31" t="n">
         <v>14.96423874524284</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.27230041236346</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>63.1739516162155</v>
       </c>
       <c r="T31" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>285.9952757096838</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>20.91036717565817</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.1439196772792</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>101.8028859671853</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>117.9358260435301</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>142.1116537687835</v>
       </c>
       <c r="G32" t="n">
-        <v>147.3431248282858</v>
+        <v>412.5253345400432</v>
       </c>
       <c r="H32" t="n">
         <v>314.2876195543873</v>
@@ -24976,16 +24976,16 @@
         <v>251.2914091074414</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>94.96073120840353</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>105.679389419412</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>121.5048620394784</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33.21162272326876</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>17.3116161025057</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>145.8111091660209</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>193.3588450474153</v>
       </c>
       <c r="U33" t="n">
         <v>224.5751800020078</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>10.15943539910461</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8446864381344</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.3439389439148</v>
       </c>
       <c r="I34" t="n">
-        <v>62.81356930725806</v>
+        <v>122.3354791296873</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S34" t="n">
         <v>204.1476062603911</v>
@@ -25131,7 +25131,7 @@
         <v>223.8678826167112</v>
       </c>
       <c r="U34" t="n">
-        <v>285.9952757096838</v>
+        <v>143.4404684624303</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25140,10 +25140,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>292.3676190935997</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25168,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>177.7754306007347</v>
+        <v>412.5253345400432</v>
       </c>
       <c r="H35" t="n">
-        <v>79.53771561507881</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>115.4189244919474</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>152.7830459149763</v>
       </c>
       <c r="T35" t="n">
-        <v>212.7680335901896</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2914091074414</v>
+        <v>16.541505168133</v>
       </c>
       <c r="V35" t="n">
-        <v>93.78331758321087</v>
+        <v>99.78363578365776</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>115.7802130612462</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>78.76906106073606</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>134.7768548141015</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.42534635173116</v>
       </c>
       <c r="I36" t="n">
         <v>43.59174601422158</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>17.3116161025057</v>
+        <v>1.989633484287335</v>
       </c>
       <c r="S36" t="n">
         <v>145.8111091660209</v>
@@ -25289,13 +25289,13 @@
         <v>193.3588450474153</v>
       </c>
       <c r="U36" t="n">
-        <v>224.5751800020078</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>15.23944281069163</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -25326,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.8446864381344</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.3439389439148</v>
       </c>
       <c r="I37" t="n">
         <v>122.3354791296873</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>204.1476062603911</v>
       </c>
       <c r="T37" t="n">
-        <v>33.08854633530565</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U37" t="n">
-        <v>285.9952757096838</v>
+        <v>51.24537177037541</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>18.18644712763074</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>70.71531749067361</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>132.2351917396339</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>121.8548288152897</v>
       </c>
       <c r="E38" t="n">
-        <v>148.368131815979</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>172.5439595412324</v>
+        <v>172.5439595412321</v>
       </c>
       <c r="G38" t="n">
-        <v>205.7576191503005</v>
+        <v>358.5406650652766</v>
       </c>
       <c r="H38" t="n">
         <v>314.2876195543873</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>152.7830459149763</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.7680335901896</v>
@@ -25459,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.9371678119273</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>134.7768548141015</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.42534635173116</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>193.3588450474153</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>95.66571673851297</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>200.836110040046</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>112.9064015332732</v>
+        <v>126.4085319852223</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.8678826167112</v>
       </c>
       <c r="U40" t="n">
-        <v>51.24537177037536</v>
+        <v>285.9952757096838</v>
       </c>
       <c r="V40" t="n">
-        <v>18.18644712763069</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>152.7833602943329</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>148.9665060520863</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25639,13 +25639,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>172.5439595412321</v>
       </c>
       <c r="G41" t="n">
-        <v>205.7576191503004</v>
+        <v>412.5253345400432</v>
       </c>
       <c r="H41" t="n">
-        <v>79.53771561507878</v>
+        <v>314.2876195543873</v>
       </c>
       <c r="I41" t="n">
         <v>115.4189244919474</v>
@@ -25684,7 +25684,7 @@
         <v>212.7680335901896</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2914091074414</v>
+        <v>44.52369371769831</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25693,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>136.1116951918609</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.9371678119273</v>
+        <v>151.9371678119271</v>
       </c>
     </row>
     <row r="42">
@@ -25715,10 +25715,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>134.7768548141015</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>94.99549637471773</v>
+        <v>15.23944281069134</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>188.3491688003668</v>
       </c>
     </row>
     <row r="43">
@@ -25788,16 +25788,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>115.0171669437428</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>122.3354791296873</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.96423874524284</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>204.1476062603911</v>
       </c>
       <c r="T43" t="n">
-        <v>223.8678826167112</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>285.9952757096838</v>
+        <v>51.24537177037513</v>
       </c>
       <c r="V43" t="n">
-        <v>18.18644712763066</v>
+        <v>18.18644712763046</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>175.3353096581033</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>148.9665060520865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>149.8370173648556</v>
+        <v>121.8548288152899</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>200.526148090798</v>
       </c>
       <c r="G44" t="n">
-        <v>412.5253345400432</v>
+        <v>177.7754306007347</v>
       </c>
       <c r="H44" t="n">
         <v>314.2876195543873</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>151.9371678119273</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>140.4433351178423</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>134.7768548141015</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>17.3116161025057</v>
       </c>
       <c r="S45" t="n">
         <v>145.8111091660209</v>
@@ -26000,19 +26000,19 @@
         <v>193.3588450474153</v>
       </c>
       <c r="U45" t="n">
-        <v>224.5751800020078</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>15.23944281069154</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>188.3491688003674</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.68652861543379</v>
       </c>
       <c r="H46" t="n">
         <v>152.3439389439148</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>207.829629654384</v>
+        <v>285.9952757096838</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436088.8469284445</v>
+        <v>436088.8469284446</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>436088.8469284444</v>
+        <v>436088.8469284445</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>462093.1573851668</v>
+        <v>462093.1573851666</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462093.1573851666</v>
+        <v>462093.1573851667</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>462093.1573851667</v>
+        <v>462093.1573851668</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>462093.1573851668</v>
+        <v>462093.1573851667</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>436088.8469284444</v>
+        <v>436088.8469284445</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436088.8469284444</v>
+        <v>436088.8469284445</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>527901.6455412314</v>
       </c>
       <c r="C2" t="n">
-        <v>527901.6455412314</v>
+        <v>527901.6455412315</v>
       </c>
       <c r="D2" t="n">
         <v>527901.6455412314</v>
@@ -26325,34 +26325,34 @@
         <v>249869.5048174259</v>
       </c>
       <c r="F2" t="n">
+        <v>249869.5048174257</v>
+      </c>
+      <c r="G2" t="n">
         <v>249869.5048174258</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>249869.5048174259</v>
       </c>
-      <c r="H2" t="n">
-        <v>249869.5048174258</v>
-      </c>
       <c r="I2" t="n">
-        <v>261077.355411165</v>
+        <v>261077.3554111649</v>
       </c>
       <c r="J2" t="n">
         <v>261077.3554111649</v>
       </c>
       <c r="K2" t="n">
-        <v>261077.355411165</v>
+        <v>261077.3554111648</v>
       </c>
       <c r="L2" t="n">
-        <v>261077.355411165</v>
+        <v>261077.3554111649</v>
       </c>
       <c r="M2" t="n">
         <v>249869.5048174257</v>
       </c>
       <c r="N2" t="n">
-        <v>249869.5048174257</v>
+        <v>249869.5048174258</v>
       </c>
       <c r="O2" t="n">
-        <v>249869.5048174258</v>
+        <v>249869.5048174259</v>
       </c>
       <c r="P2" t="n">
         <v>249869.5048174258</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8092.589183315353</v>
+        <v>8092.589183315338</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50916.76273357417</v>
+        <v>50916.76273357445</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427315.5897743299</v>
+        <v>427315.5897743298</v>
       </c>
       <c r="C4" t="n">
         <v>427315.5897743299</v>
       </c>
       <c r="D4" t="n">
-        <v>427315.5897743299</v>
+        <v>427315.5897743298</v>
       </c>
       <c r="E4" t="n">
-        <v>13436.32558768323</v>
+        <v>13436.32558768322</v>
       </c>
       <c r="F4" t="n">
-        <v>13436.32558768321</v>
+        <v>13436.32558768322</v>
       </c>
       <c r="G4" t="n">
         <v>13436.32558768322</v>
       </c>
       <c r="H4" t="n">
-        <v>13436.32558768321</v>
+        <v>13436.32558768322</v>
       </c>
       <c r="I4" t="n">
         <v>20499.89369044552</v>
@@ -26450,13 +26450,13 @@
         <v>20499.89369044552</v>
       </c>
       <c r="M4" t="n">
-        <v>13436.3255876832</v>
+        <v>13436.32558768319</v>
       </c>
       <c r="N4" t="n">
-        <v>13436.3255876832</v>
+        <v>13436.32558768322</v>
       </c>
       <c r="O4" t="n">
-        <v>13436.3255876832</v>
+        <v>13436.32558768322</v>
       </c>
       <c r="P4" t="n">
         <v>13436.3255876832</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26904.7153761149</v>
+        <v>26904.71537611489</v>
       </c>
       <c r="F5" t="n">
         <v>26904.71537611489</v>
@@ -26505,10 +26505,10 @@
         <v>26904.71537611488</v>
       </c>
       <c r="N5" t="n">
-        <v>26904.71537611488</v>
+        <v>26904.71537611489</v>
       </c>
       <c r="O5" t="n">
-        <v>26904.71537611488</v>
+        <v>26904.71537611489</v>
       </c>
       <c r="P5" t="n">
         <v>26904.71537611488</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66958.45576690155</v>
+        <v>66914.37999542168</v>
       </c>
       <c r="C6" t="n">
-        <v>66958.45576690155</v>
+        <v>66914.37999542168</v>
       </c>
       <c r="D6" t="n">
-        <v>66958.45576690155</v>
+        <v>66914.37999542168</v>
       </c>
       <c r="E6" t="n">
-        <v>-326091.2893493526</v>
+        <v>-336828.9089948251</v>
       </c>
       <c r="F6" t="n">
-        <v>209528.4638536277</v>
+        <v>198790.8442081553</v>
       </c>
       <c r="G6" t="n">
-        <v>209528.4638536278</v>
+        <v>198790.8442081553</v>
       </c>
       <c r="H6" t="n">
-        <v>209528.4638536277</v>
+        <v>198790.8442081553</v>
       </c>
       <c r="I6" t="n">
-        <v>203729.8729703243</v>
+        <v>193423.3245015341</v>
       </c>
       <c r="J6" t="n">
-        <v>211822.4621536396</v>
+        <v>201515.9136848495</v>
       </c>
       <c r="K6" t="n">
-        <v>211822.4621536397</v>
+        <v>201515.9136848494</v>
       </c>
       <c r="L6" t="n">
-        <v>211822.4621536397</v>
+        <v>201515.9136848495</v>
       </c>
       <c r="M6" t="n">
-        <v>158611.7011200535</v>
+        <v>147874.0814745808</v>
       </c>
       <c r="N6" t="n">
-        <v>209528.4638536276</v>
+        <v>198790.8442081553</v>
       </c>
       <c r="O6" t="n">
-        <v>209528.4638536277</v>
+        <v>198790.8442081554</v>
       </c>
       <c r="P6" t="n">
-        <v>209528.4638536277</v>
+        <v>198790.8442081553</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>579.4459273671985</v>
+        <v>579.4459273671986</v>
       </c>
       <c r="F3" t="n">
-        <v>579.4459273671985</v>
+        <v>579.4459273671986</v>
       </c>
       <c r="G3" t="n">
         <v>579.4459273671985</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>234.7499039393088</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="F4" t="n">
-        <v>234.7499039393086</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="G4" t="n">
         <v>234.7499039393087</v>
       </c>
       <c r="H4" t="n">
-        <v>234.7499039393086</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="I4" t="n">
         <v>265.1822097117574</v>
@@ -26822,13 +26822,13 @@
         <v>265.1822097117574</v>
       </c>
       <c r="M4" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="N4" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="O4" t="n">
-        <v>234.7499039393085</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="P4" t="n">
         <v>234.7499039393085</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>579.4459273671985</v>
+        <v>579.4459273671986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>234.7499039393088</v>
+        <v>234.7499039393086</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.43230577244879</v>
+        <v>30.43230577244873</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>204.31759816686</v>
+        <v>204.3175981668611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>234.7499039393088</v>
+        <v>234.7499039393086</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,28 +31755,28 @@
         <v>2.329430863787731</v>
       </c>
       <c r="H11" t="n">
-        <v>23.8562838337661</v>
+        <v>23.85628383376611</v>
       </c>
       <c r="I11" t="n">
-        <v>89.80538337617658</v>
+        <v>89.80538337617659</v>
       </c>
       <c r="J11" t="n">
         <v>197.7075327754041</v>
       </c>
       <c r="K11" t="n">
-        <v>296.3123412395388</v>
+        <v>296.3123412395389</v>
       </c>
       <c r="L11" t="n">
-        <v>367.6016610371826</v>
+        <v>367.6016610371827</v>
       </c>
       <c r="M11" t="n">
         <v>409.0276771610677</v>
       </c>
       <c r="N11" t="n">
-        <v>415.6461726028046</v>
+        <v>415.6461726028047</v>
       </c>
       <c r="O11" t="n">
-        <v>392.4828944510153</v>
+        <v>392.4828944510154</v>
       </c>
       <c r="P11" t="n">
         <v>334.9750700012557</v>
@@ -31788,7 +31788,7 @@
         <v>146.3261114974062</v>
       </c>
       <c r="S11" t="n">
-        <v>53.08190580856296</v>
+        <v>53.08190580856298</v>
       </c>
       <c r="T11" t="n">
         <v>10.1970836062308</v>
@@ -31837,7 +31837,7 @@
         <v>12.03716917040162</v>
       </c>
       <c r="I12" t="n">
-        <v>42.91179745125008</v>
+        <v>42.91179745125009</v>
       </c>
       <c r="J12" t="n">
         <v>117.753252088838</v>
@@ -31846,34 +31846,34 @@
         <v>201.2590632818693</v>
       </c>
       <c r="L12" t="n">
-        <v>270.6176474935204</v>
+        <v>270.6176474935205</v>
       </c>
       <c r="M12" t="n">
-        <v>315.7980304151231</v>
+        <v>315.7980304151232</v>
       </c>
       <c r="N12" t="n">
         <v>324.1562645938444</v>
       </c>
       <c r="O12" t="n">
-        <v>296.5396530366831</v>
+        <v>296.5396530366832</v>
       </c>
       <c r="P12" t="n">
-        <v>237.9992149595574</v>
+        <v>237.9992149595575</v>
       </c>
       <c r="Q12" t="n">
         <v>159.0961723593863</v>
       </c>
       <c r="R12" t="n">
-        <v>77.38336365858552</v>
+        <v>77.38336365858554</v>
       </c>
       <c r="S12" t="n">
-        <v>23.15050473962343</v>
+        <v>23.15050473962344</v>
       </c>
       <c r="T12" t="n">
-        <v>5.023686860853351</v>
+        <v>5.023686860853352</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08199706519347151</v>
+        <v>0.08199706519347154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.044902491973636</v>
+        <v>1.044902491973637</v>
       </c>
       <c r="H13" t="n">
-        <v>9.290133065001974</v>
+        <v>9.290133065001976</v>
       </c>
       <c r="I13" t="n">
         <v>31.42306766771628</v>
       </c>
       <c r="J13" t="n">
-        <v>73.8746061825361</v>
+        <v>73.87460618253611</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3986713402097</v>
+        <v>121.3986713402098</v>
       </c>
       <c r="L13" t="n">
         <v>155.3485032157896</v>
@@ -31940,7 +31940,7 @@
         <v>126.3762068474296</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.49633503244696</v>
+        <v>87.49633503244698</v>
       </c>
       <c r="R13" t="n">
         <v>46.98261568456005</v>
@@ -31949,10 +31949,10 @@
         <v>18.20980070103146</v>
       </c>
       <c r="T13" t="n">
-        <v>4.464583374796446</v>
+        <v>4.464583374796447</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05699468138038024</v>
+        <v>0.05699468138038025</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,28 +31992,28 @@
         <v>2.329430863787731</v>
       </c>
       <c r="H14" t="n">
-        <v>23.8562838337661</v>
+        <v>23.85628383376611</v>
       </c>
       <c r="I14" t="n">
-        <v>89.80538337617658</v>
+        <v>89.80538337617659</v>
       </c>
       <c r="J14" t="n">
         <v>197.7075327754041</v>
       </c>
       <c r="K14" t="n">
-        <v>296.3123412395388</v>
+        <v>296.3123412395389</v>
       </c>
       <c r="L14" t="n">
-        <v>367.6016610371826</v>
+        <v>367.6016610371827</v>
       </c>
       <c r="M14" t="n">
         <v>409.0276771610677</v>
       </c>
       <c r="N14" t="n">
-        <v>415.6461726028046</v>
+        <v>415.6461726028047</v>
       </c>
       <c r="O14" t="n">
-        <v>392.4828944510153</v>
+        <v>392.4828944510154</v>
       </c>
       <c r="P14" t="n">
         <v>334.9750700012557</v>
@@ -32025,7 +32025,7 @@
         <v>146.3261114974062</v>
       </c>
       <c r="S14" t="n">
-        <v>53.08190580856296</v>
+        <v>53.08190580856298</v>
       </c>
       <c r="T14" t="n">
         <v>10.1970836062308</v>
@@ -32074,7 +32074,7 @@
         <v>12.03716917040162</v>
       </c>
       <c r="I15" t="n">
-        <v>42.91179745125008</v>
+        <v>42.91179745125009</v>
       </c>
       <c r="J15" t="n">
         <v>117.753252088838</v>
@@ -32083,34 +32083,34 @@
         <v>201.2590632818693</v>
       </c>
       <c r="L15" t="n">
-        <v>270.6176474935204</v>
+        <v>270.6176474935205</v>
       </c>
       <c r="M15" t="n">
-        <v>315.7980304151231</v>
+        <v>315.7980304151232</v>
       </c>
       <c r="N15" t="n">
         <v>324.1562645938444</v>
       </c>
       <c r="O15" t="n">
-        <v>296.5396530366831</v>
+        <v>296.5396530366832</v>
       </c>
       <c r="P15" t="n">
-        <v>237.9992149595574</v>
+        <v>237.9992149595575</v>
       </c>
       <c r="Q15" t="n">
         <v>159.0961723593863</v>
       </c>
       <c r="R15" t="n">
-        <v>77.38336365858552</v>
+        <v>77.38336365858554</v>
       </c>
       <c r="S15" t="n">
-        <v>23.15050473962343</v>
+        <v>23.15050473962344</v>
       </c>
       <c r="T15" t="n">
-        <v>5.023686860853351</v>
+        <v>5.023686860853352</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08199706519347151</v>
+        <v>0.08199706519347154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.044902491973636</v>
+        <v>1.044902491973637</v>
       </c>
       <c r="H16" t="n">
-        <v>9.290133065001974</v>
+        <v>9.290133065001976</v>
       </c>
       <c r="I16" t="n">
         <v>31.42306766771628</v>
       </c>
       <c r="J16" t="n">
-        <v>73.8746061825361</v>
+        <v>73.87460618253611</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3986713402097</v>
+        <v>121.3986713402098</v>
       </c>
       <c r="L16" t="n">
         <v>155.3485032157896</v>
@@ -32177,7 +32177,7 @@
         <v>126.3762068474296</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.49633503244696</v>
+        <v>87.49633503244698</v>
       </c>
       <c r="R16" t="n">
         <v>46.98261568456005</v>
@@ -32186,10 +32186,10 @@
         <v>18.20980070103146</v>
       </c>
       <c r="T16" t="n">
-        <v>4.464583374796446</v>
+        <v>4.464583374796447</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05699468138038024</v>
+        <v>0.05699468138038025</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.18777586188497</v>
+        <v>21.187775861885</v>
       </c>
       <c r="K11" t="n">
-        <v>81.72473647068276</v>
+        <v>81.72473647068281</v>
       </c>
       <c r="L11" t="n">
-        <v>137.7294064414451</v>
+        <v>137.7294064414452</v>
       </c>
       <c r="M11" t="n">
         <v>184.4400997644768</v>
       </c>
       <c r="N11" t="n">
-        <v>191.9684355961284</v>
+        <v>191.9684355961286</v>
       </c>
       <c r="O11" t="n">
         <v>168.1371383148708</v>
@@ -35430,7 +35430,7 @@
         <v>109.5228991398679</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.80427956426922</v>
+        <v>34.80427956426928</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>66.31211595041356</v>
       </c>
       <c r="K12" t="n">
-        <v>66.8636602818693</v>
+        <v>66.86366028186933</v>
       </c>
       <c r="L12" t="n">
-        <v>201.8392431585571</v>
+        <v>135.5271272081431</v>
       </c>
       <c r="M12" t="n">
-        <v>177.2173473411552</v>
+        <v>177.2173473411553</v>
       </c>
       <c r="N12" t="n">
         <v>196.0980953125944</v>
       </c>
       <c r="O12" t="n">
-        <v>157.5083147033498</v>
+        <v>157.5083147033499</v>
       </c>
       <c r="P12" t="n">
-        <v>107.3741677305854</v>
+        <v>107.3741677305855</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.61394262551531</v>
+        <v>22.61394262551534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.6242616223764</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6698952459978</v>
+        <v>192.8096334447989</v>
       </c>
       <c r="M13" t="n">
         <v>213.9906231705578</v>
@@ -35582,10 +35582,10 @@
         <v>214.0955982772946</v>
       </c>
       <c r="O13" t="n">
-        <v>182.2604257136629</v>
+        <v>182.260425713663</v>
       </c>
       <c r="P13" t="n">
-        <v>132.4982287461134</v>
+        <v>19.73422892493577</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.18777586188497</v>
+        <v>21.187775861885</v>
       </c>
       <c r="K14" t="n">
-        <v>81.72473647068276</v>
+        <v>81.72473647068281</v>
       </c>
       <c r="L14" t="n">
-        <v>137.7294064414451</v>
+        <v>137.7294064414452</v>
       </c>
       <c r="M14" t="n">
         <v>184.4400997644768</v>
       </c>
       <c r="N14" t="n">
-        <v>191.9684355961284</v>
+        <v>191.9684355961286</v>
       </c>
       <c r="O14" t="n">
         <v>168.1371383148708</v>
@@ -35667,7 +35667,7 @@
         <v>109.5228991398679</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.80427956426922</v>
+        <v>34.80427956426928</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.64321963412938</v>
+        <v>66.86366028186933</v>
       </c>
       <c r="L15" t="n">
-        <v>135.527127208143</v>
+        <v>135.5271272081431</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7499039393086</v>
+        <v>177.2173473411553</v>
       </c>
       <c r="N15" t="n">
         <v>196.0980953125944</v>
       </c>
       <c r="O15" t="n">
-        <v>157.5083147033498</v>
+        <v>157.5083147033499</v>
       </c>
       <c r="P15" t="n">
-        <v>107.3741677305854</v>
+        <v>173.686283680999</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.61394262551531</v>
+        <v>22.61394262551534</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.6242616223764</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>192.8096334447989</v>
@@ -35816,16 +35816,16 @@
         <v>213.9906231705578</v>
       </c>
       <c r="N16" t="n">
-        <v>93.59596329951776</v>
+        <v>214.0955982772946</v>
       </c>
       <c r="O16" t="n">
-        <v>182.2604257136629</v>
+        <v>182.260425713663</v>
       </c>
       <c r="P16" t="n">
-        <v>132.4982287461134</v>
+        <v>118.6228553907132</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.735635156598789</v>
+        <v>7.735635156598804</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>66.31211595041388</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>66.8636602818693</v>
@@ -35980,7 +35980,7 @@
         <v>157.5083147033498</v>
       </c>
       <c r="P18" t="n">
-        <v>107.3741677305854</v>
+        <v>173.6862836809993</v>
       </c>
       <c r="Q18" t="n">
         <v>22.61394262551531</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.6242616223764</v>
       </c>
       <c r="L19" t="n">
         <v>192.8096334447989</v>
       </c>
       <c r="M19" t="n">
-        <v>213.9906231705578</v>
+        <v>93.49098819278134</v>
       </c>
       <c r="N19" t="n">
         <v>214.0955982772946</v>
@@ -36059,10 +36059,10 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P19" t="n">
-        <v>126.3584905473121</v>
+        <v>132.4982287461134</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.735635156598789</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>66.31211595041388</v>
       </c>
       <c r="K21" t="n">
         <v>66.8636602818693</v>
       </c>
       <c r="L21" t="n">
-        <v>201.8392431585565</v>
+        <v>135.527127208143</v>
       </c>
       <c r="M21" t="n">
         <v>177.2173473411552</v>
@@ -36296,7 +36296,7 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P22" t="n">
-        <v>126.3584905473116</v>
+        <v>126.3584905473121</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>135.527127208143</v>
       </c>
       <c r="M24" t="n">
-        <v>265.1822097117574</v>
+        <v>177.2173473411552</v>
       </c>
       <c r="N24" t="n">
         <v>196.0980953125944</v>
       </c>
       <c r="O24" t="n">
-        <v>256.3552032609381</v>
+        <v>157.5083147033498</v>
       </c>
       <c r="P24" t="n">
         <v>107.3741677305854</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.61394262551531</v>
+        <v>209.4256935537058</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79.13785591978292</v>
+        <v>125.2212428428631</v>
       </c>
       <c r="K27" t="n">
         <v>66.8636602818693</v>
@@ -36688,13 +36688,13 @@
         <v>196.0980953125944</v>
       </c>
       <c r="O27" t="n">
-        <v>265.1822097117574</v>
+        <v>157.5083147033498</v>
       </c>
       <c r="P27" t="n">
         <v>107.3741677305854</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.61394262551531</v>
+        <v>84.20445071084248</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>132.4982287461134</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.735635156598968</v>
+        <v>7.735635156598789</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>81.72473647068276</v>
       </c>
       <c r="L29" t="n">
-        <v>137.7294064414451</v>
+        <v>177.4869314719415</v>
       </c>
       <c r="M29" t="n">
         <v>265.1822097117574</v>
       </c>
       <c r="N29" t="n">
-        <v>227.2506718300956</v>
+        <v>191.9684355961284</v>
       </c>
       <c r="O29" t="n">
         <v>168.1371383148708</v>
@@ -36855,7 +36855,7 @@
         <v>34.80427956426922</v>
       </c>
       <c r="R29" t="n">
-        <v>4.475288796529099</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.76277415842542</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>66.8636602818693</v>
@@ -36919,10 +36919,10 @@
         <v>135.527127208143</v>
       </c>
       <c r="M30" t="n">
-        <v>265.1822097117574</v>
+        <v>177.2173473411552</v>
       </c>
       <c r="N30" t="n">
-        <v>265.1822097117574</v>
+        <v>196.0980953125944</v>
       </c>
       <c r="O30" t="n">
         <v>157.5083147033498</v>
@@ -36931,7 +36931,7 @@
         <v>107.3741677305854</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.61394262551531</v>
+        <v>209.4256935537058</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.18777586188497</v>
+        <v>141.687410839662</v>
       </c>
       <c r="K32" t="n">
         <v>81.72473647068276</v>
@@ -37089,7 +37089,7 @@
         <v>109.5228991398679</v>
       </c>
       <c r="Q32" t="n">
-        <v>155.3039145420462</v>
+        <v>34.80427956426922</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>125.2212428428631</v>
       </c>
       <c r="K33" t="n">
         <v>66.8636602818693</v>
@@ -37159,7 +37159,7 @@
         <v>177.2173473411552</v>
       </c>
       <c r="N33" t="n">
-        <v>196.0980953125944</v>
+        <v>257.6886033979217</v>
       </c>
       <c r="O33" t="n">
         <v>157.5083147033498</v>
@@ -37168,7 +37168,7 @@
         <v>107.3741677305854</v>
       </c>
       <c r="Q33" t="n">
-        <v>209.4256935537058</v>
+        <v>22.61394262551531</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>109.5228991398679</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.8042795642687</v>
+        <v>34.80427956426922</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>66.31211595041297</v>
+        <v>27.66030732369874</v>
       </c>
       <c r="K36" t="n">
         <v>66.8636602818693</v>
@@ -37396,7 +37396,7 @@
         <v>177.2173473411552</v>
       </c>
       <c r="N36" t="n">
-        <v>196.0980953125944</v>
+        <v>234.7499039393084</v>
       </c>
       <c r="O36" t="n">
         <v>157.5083147033498</v>
@@ -37481,7 +37481,7 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P37" t="n">
-        <v>118.6228553907124</v>
+        <v>118.6228553907122</v>
       </c>
       <c r="Q37" t="n">
         <v>7.735635156598789</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>66.8636602818693</v>
+        <v>94.52396760556888</v>
       </c>
       <c r="L39" t="n">
-        <v>201.839243158556</v>
+        <v>135.527127208143</v>
       </c>
       <c r="M39" t="n">
         <v>177.2173473411552</v>
       </c>
       <c r="N39" t="n">
-        <v>196.0980953125944</v>
+        <v>234.7499039393087</v>
       </c>
       <c r="O39" t="n">
         <v>157.5083147033498</v>
@@ -37718,10 +37718,10 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P40" t="n">
-        <v>118.6228553907124</v>
+        <v>126.3584905473121</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.735635156598789</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>107.3741677305854</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.92605857592831</v>
+        <v>88.9260585759291</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.6242616223764</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>192.8096334447989</v>
+        <v>186.6698952459976</v>
       </c>
       <c r="M43" t="n">
         <v>213.9906231705578</v>
@@ -37955,10 +37955,10 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P43" t="n">
-        <v>11.99859376833623</v>
+        <v>132.4982287461134</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.735635156598789</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>66.31211595041297</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>66.8636602818693</v>
       </c>
       <c r="L45" t="n">
-        <v>135.527127208143</v>
+        <v>201.839243158556</v>
       </c>
       <c r="M45" t="n">
         <v>177.2173473411552</v>
@@ -38180,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>186.6698952459968</v>
+        <v>192.8096334447989</v>
       </c>
       <c r="M46" t="n">
         <v>213.9906231705578</v>
@@ -38192,7 +38192,7 @@
         <v>182.2604257136629</v>
       </c>
       <c r="P46" t="n">
-        <v>132.4982287461134</v>
+        <v>126.3584905473113</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
